--- a/10_Management/100_Schedule/Ebill_Plan_Q2_2018.xlsx
+++ b/10_Management/100_Schedule/Ebill_Plan_Q2_2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TONG HOP\EBill\10_Management\100_Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\Project_Startup\EBill\10_Management\100_Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E566785F-FB0F-4D23-84D1-C4300E0F8CD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E64E70-94D1-49B9-AB1F-DFA82D8A13E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="0" windowWidth="23040" windowHeight="7770" tabRatio="296" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2466,22 +2466,58 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2502,43 +2538,7 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="23" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2549,42 +2549,6 @@
     </xf>
     <xf numFmtId="167" fontId="23" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2617,21 +2581,52 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2645,14 +2640,19 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2695,7 +2695,7 @@
     <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="1139">
+  <dxfs count="1135">
     <dxf>
       <fill>
         <patternFill>
@@ -11015,35 +11015,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -11090,8 +11061,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1138"/>
-      <tableStyleElement type="headerRow" dxfId="1137"/>
+      <tableStyleElement type="wholeTable" dxfId="1134"/>
+      <tableStyleElement type="headerRow" dxfId="1133"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -13093,120 +13064,120 @@
       <c r="K3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="113">
+      <c r="L3" s="125">
         <v>2017</v>
       </c>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="114"/>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114"/>
-      <c r="AQ3" s="114"/>
-      <c r="AR3" s="114"/>
-      <c r="AS3" s="114"/>
-      <c r="AT3" s="114"/>
-      <c r="AU3" s="114"/>
-      <c r="AV3" s="114"/>
-      <c r="AW3" s="114"/>
-      <c r="AX3" s="114"/>
-      <c r="AY3" s="114"/>
-      <c r="AZ3" s="114"/>
-      <c r="BA3" s="114"/>
-      <c r="BB3" s="114"/>
-      <c r="BC3" s="114"/>
-      <c r="BD3" s="114"/>
-      <c r="BE3" s="114"/>
-      <c r="BF3" s="114"/>
-      <c r="BG3" s="114"/>
-      <c r="BH3" s="114"/>
-      <c r="BI3" s="114"/>
-      <c r="BJ3" s="114"/>
-      <c r="BK3" s="114"/>
-      <c r="BL3" s="114"/>
-      <c r="BM3" s="114"/>
-      <c r="BN3" s="114"/>
-      <c r="BO3" s="114"/>
-      <c r="BP3" s="114"/>
-      <c r="BQ3" s="115"/>
-      <c r="BR3" s="113">
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="126"/>
+      <c r="AM3" s="126"/>
+      <c r="AN3" s="126"/>
+      <c r="AO3" s="126"/>
+      <c r="AP3" s="126"/>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="126"/>
+      <c r="AS3" s="126"/>
+      <c r="AT3" s="126"/>
+      <c r="AU3" s="126"/>
+      <c r="AV3" s="126"/>
+      <c r="AW3" s="126"/>
+      <c r="AX3" s="126"/>
+      <c r="AY3" s="126"/>
+      <c r="AZ3" s="126"/>
+      <c r="BA3" s="126"/>
+      <c r="BB3" s="126"/>
+      <c r="BC3" s="126"/>
+      <c r="BD3" s="126"/>
+      <c r="BE3" s="126"/>
+      <c r="BF3" s="126"/>
+      <c r="BG3" s="126"/>
+      <c r="BH3" s="126"/>
+      <c r="BI3" s="126"/>
+      <c r="BJ3" s="126"/>
+      <c r="BK3" s="126"/>
+      <c r="BL3" s="126"/>
+      <c r="BM3" s="126"/>
+      <c r="BN3" s="126"/>
+      <c r="BO3" s="126"/>
+      <c r="BP3" s="126"/>
+      <c r="BQ3" s="127"/>
+      <c r="BR3" s="125">
         <v>2018</v>
       </c>
-      <c r="BS3" s="114"/>
-      <c r="BT3" s="114"/>
-      <c r="BU3" s="114"/>
-      <c r="BV3" s="114"/>
-      <c r="BW3" s="114"/>
-      <c r="BX3" s="114"/>
-      <c r="BY3" s="114"/>
-      <c r="BZ3" s="114"/>
-      <c r="CA3" s="114"/>
-      <c r="CB3" s="114"/>
-      <c r="CC3" s="114"/>
-      <c r="CD3" s="114"/>
-      <c r="CE3" s="114"/>
-      <c r="CF3" s="114"/>
-      <c r="CG3" s="114"/>
-      <c r="CH3" s="114"/>
-      <c r="CI3" s="114"/>
-      <c r="CJ3" s="114"/>
-      <c r="CK3" s="114"/>
-      <c r="CL3" s="114"/>
-      <c r="CM3" s="114"/>
-      <c r="CN3" s="114"/>
-      <c r="CO3" s="114"/>
-      <c r="CP3" s="114"/>
-      <c r="CQ3" s="114"/>
-      <c r="CR3" s="114"/>
-      <c r="CS3" s="114"/>
-      <c r="CT3" s="114"/>
-      <c r="CU3" s="114"/>
-      <c r="CV3" s="114"/>
-      <c r="CW3" s="114"/>
-      <c r="CX3" s="114"/>
-      <c r="CY3" s="114"/>
-      <c r="CZ3" s="114"/>
-      <c r="DA3" s="114"/>
-      <c r="DB3" s="114"/>
-      <c r="DC3" s="114"/>
-      <c r="DD3" s="114"/>
-      <c r="DE3" s="114"/>
-      <c r="DF3" s="114"/>
-      <c r="DG3" s="114"/>
-      <c r="DH3" s="114"/>
-      <c r="DI3" s="114"/>
-      <c r="DJ3" s="114"/>
-      <c r="DK3" s="114"/>
-      <c r="DL3" s="114"/>
-      <c r="DM3" s="114"/>
-      <c r="DN3" s="114"/>
-      <c r="DO3" s="114"/>
-      <c r="DP3" s="114"/>
-      <c r="DQ3" s="115"/>
+      <c r="BS3" s="126"/>
+      <c r="BT3" s="126"/>
+      <c r="BU3" s="126"/>
+      <c r="BV3" s="126"/>
+      <c r="BW3" s="126"/>
+      <c r="BX3" s="126"/>
+      <c r="BY3" s="126"/>
+      <c r="BZ3" s="126"/>
+      <c r="CA3" s="126"/>
+      <c r="CB3" s="126"/>
+      <c r="CC3" s="126"/>
+      <c r="CD3" s="126"/>
+      <c r="CE3" s="126"/>
+      <c r="CF3" s="126"/>
+      <c r="CG3" s="126"/>
+      <c r="CH3" s="126"/>
+      <c r="CI3" s="126"/>
+      <c r="CJ3" s="126"/>
+      <c r="CK3" s="126"/>
+      <c r="CL3" s="126"/>
+      <c r="CM3" s="126"/>
+      <c r="CN3" s="126"/>
+      <c r="CO3" s="126"/>
+      <c r="CP3" s="126"/>
+      <c r="CQ3" s="126"/>
+      <c r="CR3" s="126"/>
+      <c r="CS3" s="126"/>
+      <c r="CT3" s="126"/>
+      <c r="CU3" s="126"/>
+      <c r="CV3" s="126"/>
+      <c r="CW3" s="126"/>
+      <c r="CX3" s="126"/>
+      <c r="CY3" s="126"/>
+      <c r="CZ3" s="126"/>
+      <c r="DA3" s="126"/>
+      <c r="DB3" s="126"/>
+      <c r="DC3" s="126"/>
+      <c r="DD3" s="126"/>
+      <c r="DE3" s="126"/>
+      <c r="DF3" s="126"/>
+      <c r="DG3" s="126"/>
+      <c r="DH3" s="126"/>
+      <c r="DI3" s="126"/>
+      <c r="DJ3" s="126"/>
+      <c r="DK3" s="126"/>
+      <c r="DL3" s="126"/>
+      <c r="DM3" s="126"/>
+      <c r="DN3" s="126"/>
+      <c r="DO3" s="126"/>
+      <c r="DP3" s="126"/>
+      <c r="DQ3" s="127"/>
       <c r="DR3" s="54"/>
       <c r="DS3" s="54"/>
       <c r="DT3" s="54"/>
@@ -13218,367 +13189,367 @@
       <c r="K4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112" t="s">
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112" t="s">
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="112" t="s">
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="111"/>
+      <c r="AE4" s="111"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="111"/>
+      <c r="AH4" s="111"/>
+      <c r="AI4" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="112"/>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="112"/>
-      <c r="AO4" s="112"/>
-      <c r="AP4" s="112"/>
-      <c r="AQ4" s="112" t="s">
+      <c r="AJ4" s="111"/>
+      <c r="AK4" s="111"/>
+      <c r="AL4" s="111"/>
+      <c r="AM4" s="111"/>
+      <c r="AN4" s="111"/>
+      <c r="AO4" s="111"/>
+      <c r="AP4" s="111"/>
+      <c r="AQ4" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="AR4" s="112"/>
-      <c r="AS4" s="112"/>
-      <c r="AT4" s="112"/>
-      <c r="AU4" s="112"/>
-      <c r="AV4" s="112"/>
-      <c r="AW4" s="112"/>
-      <c r="AX4" s="112"/>
-      <c r="AY4" s="112"/>
-      <c r="AZ4" s="112"/>
-      <c r="BA4" s="112" t="s">
+      <c r="AR4" s="111"/>
+      <c r="AS4" s="111"/>
+      <c r="AT4" s="111"/>
+      <c r="AU4" s="111"/>
+      <c r="AV4" s="111"/>
+      <c r="AW4" s="111"/>
+      <c r="AX4" s="111"/>
+      <c r="AY4" s="111"/>
+      <c r="AZ4" s="111"/>
+      <c r="BA4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="112"/>
-      <c r="BC4" s="112"/>
-      <c r="BD4" s="112"/>
-      <c r="BE4" s="112"/>
-      <c r="BF4" s="112"/>
-      <c r="BG4" s="112"/>
-      <c r="BH4" s="112"/>
-      <c r="BI4" s="112" t="s">
+      <c r="BB4" s="111"/>
+      <c r="BC4" s="111"/>
+      <c r="BD4" s="111"/>
+      <c r="BE4" s="111"/>
+      <c r="BF4" s="111"/>
+      <c r="BG4" s="111"/>
+      <c r="BH4" s="111"/>
+      <c r="BI4" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="BJ4" s="112"/>
-      <c r="BK4" s="112"/>
-      <c r="BL4" s="112"/>
-      <c r="BM4" s="112"/>
-      <c r="BN4" s="112"/>
-      <c r="BO4" s="112"/>
-      <c r="BP4" s="112"/>
-      <c r="BQ4" s="112"/>
-      <c r="BR4" s="112" t="s">
+      <c r="BJ4" s="111"/>
+      <c r="BK4" s="111"/>
+      <c r="BL4" s="111"/>
+      <c r="BM4" s="111"/>
+      <c r="BN4" s="111"/>
+      <c r="BO4" s="111"/>
+      <c r="BP4" s="111"/>
+      <c r="BQ4" s="111"/>
+      <c r="BR4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="BS4" s="112"/>
-      <c r="BT4" s="112"/>
-      <c r="BU4" s="112"/>
-      <c r="BV4" s="112"/>
-      <c r="BW4" s="112"/>
-      <c r="BX4" s="112"/>
-      <c r="BY4" s="112"/>
-      <c r="BZ4" s="112"/>
-      <c r="CA4" s="113" t="s">
+      <c r="BS4" s="111"/>
+      <c r="BT4" s="111"/>
+      <c r="BU4" s="111"/>
+      <c r="BV4" s="111"/>
+      <c r="BW4" s="111"/>
+      <c r="BX4" s="111"/>
+      <c r="BY4" s="111"/>
+      <c r="BZ4" s="111"/>
+      <c r="CA4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="CB4" s="114"/>
-      <c r="CC4" s="114"/>
-      <c r="CD4" s="114"/>
-      <c r="CE4" s="114"/>
-      <c r="CF4" s="114"/>
-      <c r="CG4" s="114"/>
-      <c r="CH4" s="115"/>
-      <c r="CI4" s="113" t="s">
+      <c r="CB4" s="126"/>
+      <c r="CC4" s="126"/>
+      <c r="CD4" s="126"/>
+      <c r="CE4" s="126"/>
+      <c r="CF4" s="126"/>
+      <c r="CG4" s="126"/>
+      <c r="CH4" s="127"/>
+      <c r="CI4" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="CJ4" s="114"/>
-      <c r="CK4" s="114"/>
-      <c r="CL4" s="114"/>
-      <c r="CM4" s="114"/>
-      <c r="CN4" s="114"/>
-      <c r="CO4" s="114"/>
-      <c r="CP4" s="115"/>
-      <c r="CQ4" s="113" t="s">
+      <c r="CJ4" s="126"/>
+      <c r="CK4" s="126"/>
+      <c r="CL4" s="126"/>
+      <c r="CM4" s="126"/>
+      <c r="CN4" s="126"/>
+      <c r="CO4" s="126"/>
+      <c r="CP4" s="127"/>
+      <c r="CQ4" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="CR4" s="114"/>
-      <c r="CS4" s="114"/>
-      <c r="CT4" s="114"/>
-      <c r="CU4" s="114"/>
-      <c r="CV4" s="114"/>
-      <c r="CW4" s="114"/>
-      <c r="CX4" s="114"/>
-      <c r="CY4" s="114"/>
-      <c r="CZ4" s="115"/>
-      <c r="DA4" s="113" t="s">
+      <c r="CR4" s="126"/>
+      <c r="CS4" s="126"/>
+      <c r="CT4" s="126"/>
+      <c r="CU4" s="126"/>
+      <c r="CV4" s="126"/>
+      <c r="CW4" s="126"/>
+      <c r="CX4" s="126"/>
+      <c r="CY4" s="126"/>
+      <c r="CZ4" s="127"/>
+      <c r="DA4" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="DB4" s="114"/>
-      <c r="DC4" s="114"/>
-      <c r="DD4" s="114"/>
-      <c r="DE4" s="114"/>
-      <c r="DF4" s="114"/>
-      <c r="DG4" s="114"/>
-      <c r="DH4" s="115"/>
-      <c r="DI4" s="113" t="s">
+      <c r="DB4" s="126"/>
+      <c r="DC4" s="126"/>
+      <c r="DD4" s="126"/>
+      <c r="DE4" s="126"/>
+      <c r="DF4" s="126"/>
+      <c r="DG4" s="126"/>
+      <c r="DH4" s="127"/>
+      <c r="DI4" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="DJ4" s="114"/>
-      <c r="DK4" s="114"/>
-      <c r="DL4" s="114"/>
-      <c r="DM4" s="114"/>
-      <c r="DN4" s="114"/>
-      <c r="DO4" s="114"/>
-      <c r="DP4" s="115"/>
+      <c r="DJ4" s="126"/>
+      <c r="DK4" s="126"/>
+      <c r="DL4" s="126"/>
+      <c r="DM4" s="126"/>
+      <c r="DN4" s="126"/>
+      <c r="DO4" s="126"/>
+      <c r="DP4" s="127"/>
       <c r="DQ4" s="49"/>
     </row>
     <row r="5" spans="6:127" ht="15" customHeight="1">
       <c r="K5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="111">
+      <c r="L5" s="124">
         <v>24</v>
       </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111">
+      <c r="M5" s="124"/>
+      <c r="N5" s="124">
         <v>25</v>
       </c>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111">
+      <c r="O5" s="124"/>
+      <c r="P5" s="124">
         <v>26</v>
       </c>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111">
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124">
         <v>27</v>
       </c>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111">
+      <c r="S5" s="124"/>
+      <c r="T5" s="124">
         <v>28</v>
       </c>
-      <c r="U5" s="111"/>
-      <c r="V5" s="111">
+      <c r="U5" s="124"/>
+      <c r="V5" s="124">
         <v>29</v>
       </c>
-      <c r="W5" s="111"/>
-      <c r="X5" s="111">
+      <c r="W5" s="124"/>
+      <c r="X5" s="124">
         <v>30</v>
       </c>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="111">
+      <c r="Y5" s="124"/>
+      <c r="Z5" s="124">
         <v>31</v>
       </c>
-      <c r="AA5" s="111"/>
-      <c r="AB5" s="111">
+      <c r="AA5" s="124"/>
+      <c r="AB5" s="124">
         <v>32</v>
       </c>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="111">
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="124">
         <v>33</v>
       </c>
-      <c r="AE5" s="111"/>
-      <c r="AF5" s="111">
+      <c r="AE5" s="124"/>
+      <c r="AF5" s="124">
         <v>34</v>
       </c>
-      <c r="AG5" s="111"/>
-      <c r="AH5" s="111">
+      <c r="AG5" s="124"/>
+      <c r="AH5" s="124">
         <v>35</v>
       </c>
-      <c r="AI5" s="111"/>
-      <c r="AJ5" s="111">
+      <c r="AI5" s="124"/>
+      <c r="AJ5" s="124">
         <v>36</v>
       </c>
-      <c r="AK5" s="111"/>
-      <c r="AL5" s="111">
+      <c r="AK5" s="124"/>
+      <c r="AL5" s="124">
         <v>37</v>
       </c>
-      <c r="AM5" s="111"/>
-      <c r="AN5" s="111">
+      <c r="AM5" s="124"/>
+      <c r="AN5" s="124">
         <v>38</v>
       </c>
-      <c r="AO5" s="111"/>
-      <c r="AP5" s="111">
+      <c r="AO5" s="124"/>
+      <c r="AP5" s="124">
         <v>39</v>
       </c>
-      <c r="AQ5" s="111"/>
-      <c r="AR5" s="111">
+      <c r="AQ5" s="124"/>
+      <c r="AR5" s="124">
         <v>40</v>
       </c>
-      <c r="AS5" s="111"/>
-      <c r="AT5" s="111">
+      <c r="AS5" s="124"/>
+      <c r="AT5" s="124">
         <v>41</v>
       </c>
-      <c r="AU5" s="111"/>
-      <c r="AV5" s="111">
+      <c r="AU5" s="124"/>
+      <c r="AV5" s="124">
         <v>42</v>
       </c>
-      <c r="AW5" s="111"/>
-      <c r="AX5" s="111">
+      <c r="AW5" s="124"/>
+      <c r="AX5" s="124">
         <v>43</v>
       </c>
-      <c r="AY5" s="111"/>
-      <c r="AZ5" s="111">
+      <c r="AY5" s="124"/>
+      <c r="AZ5" s="124">
         <v>44</v>
       </c>
-      <c r="BA5" s="111"/>
-      <c r="BB5" s="111">
+      <c r="BA5" s="124"/>
+      <c r="BB5" s="124">
         <v>45</v>
       </c>
-      <c r="BC5" s="111"/>
-      <c r="BD5" s="111">
+      <c r="BC5" s="124"/>
+      <c r="BD5" s="124">
         <v>46</v>
       </c>
-      <c r="BE5" s="111"/>
-      <c r="BF5" s="111">
+      <c r="BE5" s="124"/>
+      <c r="BF5" s="124">
         <v>47</v>
       </c>
-      <c r="BG5" s="111"/>
-      <c r="BH5" s="111">
+      <c r="BG5" s="124"/>
+      <c r="BH5" s="124">
         <v>48</v>
       </c>
-      <c r="BI5" s="111"/>
-      <c r="BJ5" s="111">
+      <c r="BI5" s="124"/>
+      <c r="BJ5" s="124">
         <v>49</v>
       </c>
-      <c r="BK5" s="111"/>
-      <c r="BL5" s="111">
+      <c r="BK5" s="124"/>
+      <c r="BL5" s="124">
         <v>50</v>
       </c>
-      <c r="BM5" s="111"/>
-      <c r="BN5" s="111">
+      <c r="BM5" s="124"/>
+      <c r="BN5" s="124">
         <v>51</v>
       </c>
-      <c r="BO5" s="111"/>
-      <c r="BP5" s="111">
+      <c r="BO5" s="124"/>
+      <c r="BP5" s="124">
         <v>52</v>
       </c>
-      <c r="BQ5" s="111"/>
-      <c r="BR5" s="111">
+      <c r="BQ5" s="124"/>
+      <c r="BR5" s="124">
         <v>1</v>
       </c>
-      <c r="BS5" s="111"/>
-      <c r="BT5" s="111">
+      <c r="BS5" s="124"/>
+      <c r="BT5" s="124">
         <v>2</v>
       </c>
-      <c r="BU5" s="111"/>
-      <c r="BV5" s="111">
+      <c r="BU5" s="124"/>
+      <c r="BV5" s="124">
         <v>3</v>
       </c>
-      <c r="BW5" s="111"/>
-      <c r="BX5" s="111">
+      <c r="BW5" s="124"/>
+      <c r="BX5" s="124">
         <v>4</v>
       </c>
-      <c r="BY5" s="111"/>
-      <c r="BZ5" s="111">
+      <c r="BY5" s="124"/>
+      <c r="BZ5" s="124">
         <v>5</v>
       </c>
-      <c r="CA5" s="111"/>
-      <c r="CB5" s="111">
+      <c r="CA5" s="124"/>
+      <c r="CB5" s="124">
         <v>6</v>
       </c>
-      <c r="CC5" s="111"/>
-      <c r="CD5" s="111">
+      <c r="CC5" s="124"/>
+      <c r="CD5" s="124">
         <v>7</v>
       </c>
-      <c r="CE5" s="111"/>
-      <c r="CF5" s="111">
+      <c r="CE5" s="124"/>
+      <c r="CF5" s="124">
         <v>8</v>
       </c>
-      <c r="CG5" s="111"/>
-      <c r="CH5" s="111">
+      <c r="CG5" s="124"/>
+      <c r="CH5" s="124">
         <v>9</v>
       </c>
-      <c r="CI5" s="111"/>
-      <c r="CJ5" s="111">
+      <c r="CI5" s="124"/>
+      <c r="CJ5" s="124">
         <v>10</v>
       </c>
-      <c r="CK5" s="111"/>
-      <c r="CL5" s="111">
+      <c r="CK5" s="124"/>
+      <c r="CL5" s="124">
         <v>11</v>
       </c>
-      <c r="CM5" s="111"/>
-      <c r="CN5" s="111">
+      <c r="CM5" s="124"/>
+      <c r="CN5" s="124">
         <v>12</v>
       </c>
-      <c r="CO5" s="111"/>
-      <c r="CP5" s="111">
+      <c r="CO5" s="124"/>
+      <c r="CP5" s="124">
         <v>13</v>
       </c>
-      <c r="CQ5" s="111"/>
-      <c r="CR5" s="111">
+      <c r="CQ5" s="124"/>
+      <c r="CR5" s="124">
         <v>14</v>
       </c>
-      <c r="CS5" s="111"/>
-      <c r="CT5" s="111">
+      <c r="CS5" s="124"/>
+      <c r="CT5" s="124">
         <v>15</v>
       </c>
-      <c r="CU5" s="111"/>
-      <c r="CV5" s="111">
+      <c r="CU5" s="124"/>
+      <c r="CV5" s="124">
         <v>16</v>
       </c>
-      <c r="CW5" s="111"/>
-      <c r="CX5" s="111">
+      <c r="CW5" s="124"/>
+      <c r="CX5" s="124">
         <v>17</v>
       </c>
-      <c r="CY5" s="111"/>
-      <c r="CZ5" s="111">
+      <c r="CY5" s="124"/>
+      <c r="CZ5" s="124">
         <v>18</v>
       </c>
-      <c r="DA5" s="111"/>
-      <c r="DB5" s="111">
+      <c r="DA5" s="124"/>
+      <c r="DB5" s="124">
         <v>19</v>
       </c>
-      <c r="DC5" s="111"/>
-      <c r="DD5" s="111">
+      <c r="DC5" s="124"/>
+      <c r="DD5" s="124">
         <v>20</v>
       </c>
-      <c r="DE5" s="111"/>
-      <c r="DF5" s="111">
+      <c r="DE5" s="124"/>
+      <c r="DF5" s="124">
         <v>21</v>
       </c>
-      <c r="DG5" s="111"/>
-      <c r="DH5" s="111">
+      <c r="DG5" s="124"/>
+      <c r="DH5" s="124">
         <v>22</v>
       </c>
-      <c r="DI5" s="111"/>
-      <c r="DJ5" s="111">
+      <c r="DI5" s="124"/>
+      <c r="DJ5" s="124">
         <v>23</v>
       </c>
-      <c r="DK5" s="111"/>
-      <c r="DL5" s="111">
+      <c r="DK5" s="124"/>
+      <c r="DL5" s="124">
         <v>24</v>
       </c>
-      <c r="DM5" s="111"/>
-      <c r="DN5" s="111">
+      <c r="DM5" s="124"/>
+      <c r="DN5" s="124">
         <v>25</v>
       </c>
-      <c r="DO5" s="111"/>
-      <c r="DP5" s="111">
+      <c r="DO5" s="124"/>
+      <c r="DP5" s="124">
         <v>26</v>
       </c>
-      <c r="DQ5" s="111"/>
+      <c r="DQ5" s="124"/>
     </row>
     <row r="6" spans="6:127" ht="15" customHeight="1">
       <c r="L6" s="46"/>
@@ -13597,20 +13568,20 @@
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
-      <c r="Q7" s="123" t="s">
+      <c r="Q7" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
       <c r="AC7" s="51"/>
       <c r="AD7" s="51"/>
       <c r="AE7" s="51"/>
@@ -13641,18 +13612,18 @@
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
-      <c r="Z8" s="124"/>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="124"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
       <c r="AC8" s="51"/>
       <c r="AD8" s="51"/>
       <c r="AE8" s="51"/>
@@ -13735,53 +13706,53 @@
       <c r="X10" s="51"/>
       <c r="Y10" s="51"/>
       <c r="Z10" s="53"/>
-      <c r="AA10" s="120" t="s">
+      <c r="AA10" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="120"/>
-      <c r="AH10" s="120"/>
-      <c r="AI10" s="120"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="120"/>
-      <c r="AL10" s="120"/>
-      <c r="AM10" s="120"/>
-      <c r="AN10" s="120"/>
-      <c r="AO10" s="120"/>
-      <c r="AP10" s="120"/>
-      <c r="AQ10" s="120" t="s">
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="115"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="115"/>
+      <c r="AM10" s="115"/>
+      <c r="AN10" s="115"/>
+      <c r="AO10" s="115"/>
+      <c r="AP10" s="115"/>
+      <c r="AQ10" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AR10" s="120"/>
-      <c r="AS10" s="120"/>
-      <c r="AT10" s="120"/>
-      <c r="AU10" s="120"/>
-      <c r="AV10" s="120"/>
-      <c r="AW10" s="120"/>
-      <c r="AX10" s="120"/>
-      <c r="AY10" s="120"/>
-      <c r="AZ10" s="120"/>
-      <c r="BA10" s="120"/>
-      <c r="BB10" s="120"/>
-      <c r="BC10" s="120"/>
-      <c r="BD10" s="120"/>
-      <c r="BE10" s="120"/>
-      <c r="BF10" s="120"/>
-      <c r="BG10" s="120"/>
-      <c r="BH10" s="120"/>
-      <c r="BI10" s="120"/>
-      <c r="BJ10" s="120"/>
-      <c r="BK10" s="120"/>
-      <c r="BL10" s="120"/>
-      <c r="BM10" s="120"/>
-      <c r="BN10" s="120"/>
-      <c r="BO10" s="120"/>
-      <c r="BP10" s="120"/>
-      <c r="BQ10" s="120"/>
+      <c r="AR10" s="115"/>
+      <c r="AS10" s="115"/>
+      <c r="AT10" s="115"/>
+      <c r="AU10" s="115"/>
+      <c r="AV10" s="115"/>
+      <c r="AW10" s="115"/>
+      <c r="AX10" s="115"/>
+      <c r="AY10" s="115"/>
+      <c r="AZ10" s="115"/>
+      <c r="BA10" s="115"/>
+      <c r="BB10" s="115"/>
+      <c r="BC10" s="115"/>
+      <c r="BD10" s="115"/>
+      <c r="BE10" s="115"/>
+      <c r="BF10" s="115"/>
+      <c r="BG10" s="115"/>
+      <c r="BH10" s="115"/>
+      <c r="BI10" s="115"/>
+      <c r="BJ10" s="115"/>
+      <c r="BK10" s="115"/>
+      <c r="BL10" s="115"/>
+      <c r="BM10" s="115"/>
+      <c r="BN10" s="115"/>
+      <c r="BO10" s="115"/>
+      <c r="BP10" s="115"/>
+      <c r="BQ10" s="115"/>
       <c r="BR10" s="51"/>
       <c r="BS10" s="51"/>
       <c r="BT10" s="51"/>
@@ -13813,49 +13784,49 @@
       <c r="X11" s="51"/>
       <c r="Y11" s="51"/>
       <c r="Z11" s="53"/>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="121"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="121"/>
-      <c r="AF11" s="121"/>
-      <c r="AG11" s="121"/>
-      <c r="AH11" s="121"/>
-      <c r="AI11" s="121"/>
-      <c r="AJ11" s="121"/>
-      <c r="AK11" s="121"/>
-      <c r="AL11" s="121"/>
-      <c r="AM11" s="121"/>
-      <c r="AN11" s="121"/>
-      <c r="AO11" s="121"/>
-      <c r="AP11" s="121"/>
-      <c r="AQ11" s="121"/>
-      <c r="AR11" s="121"/>
-      <c r="AS11" s="121"/>
-      <c r="AT11" s="121"/>
-      <c r="AU11" s="121"/>
-      <c r="AV11" s="121"/>
-      <c r="AW11" s="121"/>
-      <c r="AX11" s="121"/>
-      <c r="AY11" s="121"/>
-      <c r="AZ11" s="121"/>
-      <c r="BA11" s="121"/>
-      <c r="BB11" s="121"/>
-      <c r="BC11" s="121"/>
-      <c r="BD11" s="121"/>
-      <c r="BE11" s="121"/>
-      <c r="BF11" s="121"/>
-      <c r="BG11" s="121"/>
-      <c r="BH11" s="121"/>
-      <c r="BI11" s="121"/>
-      <c r="BJ11" s="121"/>
-      <c r="BK11" s="121"/>
-      <c r="BL11" s="121"/>
-      <c r="BM11" s="121"/>
-      <c r="BN11" s="121"/>
-      <c r="BO11" s="121"/>
-      <c r="BP11" s="121"/>
-      <c r="BQ11" s="121"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="116"/>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="116"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="116"/>
+      <c r="AO11" s="116"/>
+      <c r="AP11" s="116"/>
+      <c r="AQ11" s="116"/>
+      <c r="AR11" s="116"/>
+      <c r="AS11" s="116"/>
+      <c r="AT11" s="116"/>
+      <c r="AU11" s="116"/>
+      <c r="AV11" s="116"/>
+      <c r="AW11" s="116"/>
+      <c r="AX11" s="116"/>
+      <c r="AY11" s="116"/>
+      <c r="AZ11" s="116"/>
+      <c r="BA11" s="116"/>
+      <c r="BB11" s="116"/>
+      <c r="BC11" s="116"/>
+      <c r="BD11" s="116"/>
+      <c r="BE11" s="116"/>
+      <c r="BF11" s="116"/>
+      <c r="BG11" s="116"/>
+      <c r="BH11" s="116"/>
+      <c r="BI11" s="116"/>
+      <c r="BJ11" s="116"/>
+      <c r="BK11" s="116"/>
+      <c r="BL11" s="116"/>
+      <c r="BM11" s="116"/>
+      <c r="BN11" s="116"/>
+      <c r="BO11" s="116"/>
+      <c r="BP11" s="116"/>
+      <c r="BQ11" s="116"/>
       <c r="BR11" s="51"/>
       <c r="BS11" s="51"/>
       <c r="BT11" s="51"/>
@@ -13887,49 +13858,49 @@
       <c r="X12" s="46"/>
       <c r="Y12" s="46"/>
       <c r="Z12" s="46"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="122"/>
-      <c r="AC12" s="122"/>
-      <c r="AD12" s="122"/>
-      <c r="AE12" s="122"/>
-      <c r="AF12" s="122"/>
-      <c r="AG12" s="122"/>
-      <c r="AH12" s="122"/>
-      <c r="AI12" s="122"/>
-      <c r="AJ12" s="122"/>
-      <c r="AK12" s="122"/>
-      <c r="AL12" s="122"/>
-      <c r="AM12" s="122"/>
-      <c r="AN12" s="122"/>
-      <c r="AO12" s="122"/>
-      <c r="AP12" s="122"/>
-      <c r="AQ12" s="122"/>
-      <c r="AR12" s="122"/>
-      <c r="AS12" s="122"/>
-      <c r="AT12" s="122"/>
-      <c r="AU12" s="122"/>
-      <c r="AV12" s="122"/>
-      <c r="AW12" s="122"/>
-      <c r="AX12" s="122"/>
-      <c r="AY12" s="122"/>
-      <c r="AZ12" s="122"/>
-      <c r="BA12" s="122"/>
-      <c r="BB12" s="122"/>
-      <c r="BC12" s="122"/>
-      <c r="BD12" s="122"/>
-      <c r="BE12" s="122"/>
-      <c r="BF12" s="122"/>
-      <c r="BG12" s="122"/>
-      <c r="BH12" s="122"/>
-      <c r="BI12" s="122"/>
-      <c r="BJ12" s="122"/>
-      <c r="BK12" s="122"/>
-      <c r="BL12" s="122"/>
-      <c r="BM12" s="122"/>
-      <c r="BN12" s="122"/>
-      <c r="BO12" s="122"/>
-      <c r="BP12" s="122"/>
-      <c r="BQ12" s="122"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="117"/>
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="117"/>
+      <c r="AG12" s="117"/>
+      <c r="AH12" s="117"/>
+      <c r="AI12" s="117"/>
+      <c r="AJ12" s="117"/>
+      <c r="AK12" s="117"/>
+      <c r="AL12" s="117"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="117"/>
+      <c r="AO12" s="117"/>
+      <c r="AP12" s="117"/>
+      <c r="AQ12" s="117"/>
+      <c r="AR12" s="117"/>
+      <c r="AS12" s="117"/>
+      <c r="AT12" s="117"/>
+      <c r="AU12" s="117"/>
+      <c r="AV12" s="117"/>
+      <c r="AW12" s="117"/>
+      <c r="AX12" s="117"/>
+      <c r="AY12" s="117"/>
+      <c r="AZ12" s="117"/>
+      <c r="BA12" s="117"/>
+      <c r="BB12" s="117"/>
+      <c r="BC12" s="117"/>
+      <c r="BD12" s="117"/>
+      <c r="BE12" s="117"/>
+      <c r="BF12" s="117"/>
+      <c r="BG12" s="117"/>
+      <c r="BH12" s="117"/>
+      <c r="BI12" s="117"/>
+      <c r="BJ12" s="117"/>
+      <c r="BK12" s="117"/>
+      <c r="BL12" s="117"/>
+      <c r="BM12" s="117"/>
+      <c r="BN12" s="117"/>
+      <c r="BO12" s="117"/>
+      <c r="BP12" s="117"/>
+      <c r="BQ12" s="117"/>
       <c r="BR12" s="51"/>
       <c r="BS12" s="51"/>
       <c r="BT12" s="51"/>
@@ -14047,19 +14018,19 @@
       <c r="Z15" s="46"/>
       <c r="AA15" s="46"/>
       <c r="AB15" s="46"/>
-      <c r="AC15" s="129" t="s">
+      <c r="AC15" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="AD15" s="129"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="129"/>
-      <c r="AH15" s="129"/>
-      <c r="AI15" s="129"/>
-      <c r="AJ15" s="129"/>
-      <c r="AK15" s="129"/>
-      <c r="AL15" s="129"/>
-      <c r="AM15" s="129"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="110"/>
+      <c r="AK15" s="110"/>
+      <c r="AL15" s="110"/>
+      <c r="AM15" s="110"/>
       <c r="AN15" s="46"/>
       <c r="AO15" s="46"/>
       <c r="AP15" s="46"/>
@@ -14091,17 +14062,17 @@
       <c r="Z16" s="51"/>
       <c r="AA16" s="51"/>
       <c r="AB16" s="51"/>
-      <c r="AC16" s="129"/>
-      <c r="AD16" s="129"/>
-      <c r="AE16" s="129"/>
-      <c r="AF16" s="129"/>
-      <c r="AG16" s="129"/>
-      <c r="AH16" s="129"/>
-      <c r="AI16" s="129"/>
-      <c r="AJ16" s="129"/>
-      <c r="AK16" s="129"/>
-      <c r="AL16" s="129"/>
-      <c r="AM16" s="129"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="110"/>
+      <c r="AH16" s="110"/>
+      <c r="AI16" s="110"/>
+      <c r="AJ16" s="110"/>
+      <c r="AK16" s="110"/>
+      <c r="AL16" s="110"/>
+      <c r="AM16" s="110"/>
       <c r="AN16" s="46"/>
       <c r="AO16" s="46"/>
       <c r="AP16" s="46"/>
@@ -14133,17 +14104,17 @@
       <c r="Z17" s="51"/>
       <c r="AA17" s="51"/>
       <c r="AB17" s="51"/>
-      <c r="AC17" s="129"/>
-      <c r="AD17" s="129"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="129"/>
-      <c r="AG17" s="129"/>
-      <c r="AH17" s="129"/>
-      <c r="AI17" s="129"/>
-      <c r="AJ17" s="129"/>
-      <c r="AK17" s="129"/>
-      <c r="AL17" s="129"/>
-      <c r="AM17" s="129"/>
+      <c r="AC17" s="110"/>
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="110"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="110"/>
+      <c r="AJ17" s="110"/>
+      <c r="AK17" s="110"/>
+      <c r="AL17" s="110"/>
+      <c r="AM17" s="110"/>
       <c r="AN17" s="46"/>
       <c r="AO17" s="46"/>
       <c r="AP17" s="46"/>
@@ -14210,29 +14181,29 @@
       <c r="S19" s="51"/>
       <c r="T19" s="60"/>
       <c r="U19" s="60"/>
-      <c r="V19" s="129" t="s">
+      <c r="V19" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="W19" s="130"/>
-      <c r="X19" s="130"/>
-      <c r="Y19" s="130"/>
-      <c r="Z19" s="130"/>
-      <c r="AA19" s="130"/>
-      <c r="AB19" s="130"/>
-      <c r="AC19" s="130"/>
-      <c r="AD19" s="130"/>
-      <c r="AE19" s="130"/>
-      <c r="AF19" s="130"/>
-      <c r="AG19" s="130"/>
-      <c r="AH19" s="130"/>
-      <c r="AI19" s="130"/>
-      <c r="AJ19" s="130"/>
-      <c r="AK19" s="130"/>
-      <c r="AL19" s="130"/>
-      <c r="AM19" s="130"/>
-      <c r="AN19" s="130"/>
-      <c r="AO19" s="130"/>
-      <c r="AP19" s="130"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="123"/>
+      <c r="AA19" s="123"/>
+      <c r="AB19" s="123"/>
+      <c r="AC19" s="123"/>
+      <c r="AD19" s="123"/>
+      <c r="AE19" s="123"/>
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="123"/>
+      <c r="AH19" s="123"/>
+      <c r="AI19" s="123"/>
+      <c r="AJ19" s="123"/>
+      <c r="AK19" s="123"/>
+      <c r="AL19" s="123"/>
+      <c r="AM19" s="123"/>
+      <c r="AN19" s="123"/>
+      <c r="AO19" s="123"/>
+      <c r="AP19" s="123"/>
       <c r="AQ19" s="46"/>
       <c r="AR19" s="46"/>
       <c r="AS19" s="46"/>
@@ -14242,54 +14213,54 @@
       <c r="M20" s="46"/>
       <c r="T20" s="59"/>
       <c r="U20" s="59"/>
-      <c r="V20" s="130"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="130"/>
-      <c r="Y20" s="130"/>
-      <c r="Z20" s="130"/>
-      <c r="AA20" s="130"/>
-      <c r="AB20" s="130"/>
-      <c r="AC20" s="130"/>
-      <c r="AD20" s="130"/>
-      <c r="AE20" s="130"/>
-      <c r="AF20" s="130"/>
-      <c r="AG20" s="130"/>
-      <c r="AH20" s="130"/>
-      <c r="AI20" s="130"/>
-      <c r="AJ20" s="130"/>
-      <c r="AK20" s="130"/>
-      <c r="AL20" s="130"/>
-      <c r="AM20" s="130"/>
-      <c r="AN20" s="130"/>
-      <c r="AO20" s="130"/>
-      <c r="AP20" s="130"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="123"/>
+      <c r="Z20" s="123"/>
+      <c r="AA20" s="123"/>
+      <c r="AB20" s="123"/>
+      <c r="AC20" s="123"/>
+      <c r="AD20" s="123"/>
+      <c r="AE20" s="123"/>
+      <c r="AF20" s="123"/>
+      <c r="AG20" s="123"/>
+      <c r="AH20" s="123"/>
+      <c r="AI20" s="123"/>
+      <c r="AJ20" s="123"/>
+      <c r="AK20" s="123"/>
+      <c r="AL20" s="123"/>
+      <c r="AM20" s="123"/>
+      <c r="AN20" s="123"/>
+      <c r="AO20" s="123"/>
+      <c r="AP20" s="123"/>
     </row>
     <row r="21" spans="6:57" ht="15" customHeight="1">
       <c r="L21" s="46"/>
       <c r="M21" s="46"/>
       <c r="T21" s="59"/>
       <c r="U21" s="59"/>
-      <c r="V21" s="130"/>
-      <c r="W21" s="130"/>
-      <c r="X21" s="130"/>
-      <c r="Y21" s="130"/>
-      <c r="Z21" s="130"/>
-      <c r="AA21" s="130"/>
-      <c r="AB21" s="130"/>
-      <c r="AC21" s="130"/>
-      <c r="AD21" s="130"/>
-      <c r="AE21" s="130"/>
-      <c r="AF21" s="130"/>
-      <c r="AG21" s="130"/>
-      <c r="AH21" s="130"/>
-      <c r="AI21" s="130"/>
-      <c r="AJ21" s="130"/>
-      <c r="AK21" s="130"/>
-      <c r="AL21" s="130"/>
-      <c r="AM21" s="130"/>
-      <c r="AN21" s="130"/>
-      <c r="AO21" s="130"/>
-      <c r="AP21" s="130"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="123"/>
+      <c r="Y21" s="123"/>
+      <c r="Z21" s="123"/>
+      <c r="AA21" s="123"/>
+      <c r="AB21" s="123"/>
+      <c r="AC21" s="123"/>
+      <c r="AD21" s="123"/>
+      <c r="AE21" s="123"/>
+      <c r="AF21" s="123"/>
+      <c r="AG21" s="123"/>
+      <c r="AH21" s="123"/>
+      <c r="AI21" s="123"/>
+      <c r="AJ21" s="123"/>
+      <c r="AK21" s="123"/>
+      <c r="AL21" s="123"/>
+      <c r="AM21" s="123"/>
+      <c r="AN21" s="123"/>
+      <c r="AO21" s="123"/>
+      <c r="AP21" s="123"/>
     </row>
     <row r="22" spans="6:57" ht="15" customHeight="1">
       <c r="L22" s="46"/>
@@ -14306,145 +14277,145 @@
       <c r="K28" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="112" t="s">
+      <c r="L28" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="112"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="112"/>
-      <c r="Z28" s="112"/>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="112"/>
-      <c r="AD28" s="112"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="112"/>
-      <c r="AI28" s="112"/>
-      <c r="AJ28" s="112"/>
-      <c r="AK28" s="112"/>
-      <c r="AL28" s="112"/>
-      <c r="AM28" s="112"/>
-      <c r="AN28" s="112"/>
-      <c r="AO28" s="112"/>
-      <c r="AP28" s="112"/>
-      <c r="AQ28" s="112"/>
-      <c r="AR28" s="112"/>
-      <c r="AS28" s="112"/>
-      <c r="AT28" s="112"/>
-      <c r="AU28" s="112"/>
-      <c r="AV28" s="112"/>
-      <c r="AW28" s="112"/>
-      <c r="AX28" s="112"/>
-      <c r="AY28" s="112"/>
-      <c r="AZ28" s="112"/>
-      <c r="BA28" s="112"/>
-      <c r="BB28" s="112"/>
-      <c r="BC28" s="112"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
+      <c r="AA28" s="111"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="111"/>
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="111"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="111"/>
+      <c r="AH28" s="111"/>
+      <c r="AI28" s="111"/>
+      <c r="AJ28" s="111"/>
+      <c r="AK28" s="111"/>
+      <c r="AL28" s="111"/>
+      <c r="AM28" s="111"/>
+      <c r="AN28" s="111"/>
+      <c r="AO28" s="111"/>
+      <c r="AP28" s="111"/>
+      <c r="AQ28" s="111"/>
+      <c r="AR28" s="111"/>
+      <c r="AS28" s="111"/>
+      <c r="AT28" s="111"/>
+      <c r="AU28" s="111"/>
+      <c r="AV28" s="111"/>
+      <c r="AW28" s="111"/>
+      <c r="AX28" s="111"/>
+      <c r="AY28" s="111"/>
+      <c r="AZ28" s="111"/>
+      <c r="BA28" s="111"/>
+      <c r="BB28" s="111"/>
+      <c r="BC28" s="111"/>
     </row>
     <row r="29" spans="6:57" ht="15" customHeight="1">
       <c r="K29" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="109">
+      <c r="L29" s="107">
         <v>3</v>
       </c>
-      <c r="M29" s="110"/>
-      <c r="N29" s="109">
+      <c r="M29" s="108"/>
+      <c r="N29" s="107">
         <v>4</v>
       </c>
-      <c r="O29" s="110"/>
-      <c r="P29" s="109">
+      <c r="O29" s="108"/>
+      <c r="P29" s="107">
         <v>5</v>
       </c>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="109">
+      <c r="Q29" s="108"/>
+      <c r="R29" s="107">
         <v>6</v>
       </c>
-      <c r="S29" s="110"/>
-      <c r="T29" s="109">
+      <c r="S29" s="108"/>
+      <c r="T29" s="107">
         <v>7</v>
       </c>
-      <c r="U29" s="110"/>
-      <c r="V29" s="109">
+      <c r="U29" s="108"/>
+      <c r="V29" s="107">
         <v>10</v>
       </c>
-      <c r="W29" s="110"/>
-      <c r="X29" s="109">
+      <c r="W29" s="108"/>
+      <c r="X29" s="107">
         <v>11</v>
       </c>
-      <c r="Y29" s="110"/>
-      <c r="Z29" s="109">
+      <c r="Y29" s="108"/>
+      <c r="Z29" s="107">
         <v>12</v>
       </c>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="109">
+      <c r="AA29" s="108"/>
+      <c r="AB29" s="107">
         <v>13</v>
       </c>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="131" t="s">
+      <c r="AC29" s="108"/>
+      <c r="AD29" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="109">
+      <c r="AE29" s="108"/>
+      <c r="AF29" s="107">
         <v>17</v>
       </c>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="109">
+      <c r="AG29" s="108"/>
+      <c r="AH29" s="107">
         <v>18</v>
       </c>
-      <c r="AI29" s="110"/>
-      <c r="AJ29" s="109">
+      <c r="AI29" s="108"/>
+      <c r="AJ29" s="107">
         <v>19</v>
       </c>
-      <c r="AK29" s="110"/>
-      <c r="AL29" s="109">
+      <c r="AK29" s="108"/>
+      <c r="AL29" s="107">
         <v>20</v>
       </c>
-      <c r="AM29" s="110"/>
-      <c r="AN29" s="109">
+      <c r="AM29" s="108"/>
+      <c r="AN29" s="107">
         <v>21</v>
       </c>
-      <c r="AO29" s="110"/>
-      <c r="AP29" s="109">
+      <c r="AO29" s="108"/>
+      <c r="AP29" s="107">
         <v>24</v>
       </c>
-      <c r="AQ29" s="110"/>
-      <c r="AR29" s="109">
+      <c r="AQ29" s="108"/>
+      <c r="AR29" s="107">
         <v>25</v>
       </c>
-      <c r="AS29" s="110"/>
-      <c r="AT29" s="109">
+      <c r="AS29" s="108"/>
+      <c r="AT29" s="107">
         <v>26</v>
       </c>
-      <c r="AU29" s="110"/>
-      <c r="AV29" s="109">
+      <c r="AU29" s="108"/>
+      <c r="AV29" s="107">
         <v>27</v>
       </c>
-      <c r="AW29" s="110"/>
-      <c r="AX29" s="109">
+      <c r="AW29" s="108"/>
+      <c r="AX29" s="107">
         <v>28</v>
       </c>
-      <c r="AY29" s="110"/>
-      <c r="AZ29" s="109">
+      <c r="AY29" s="108"/>
+      <c r="AZ29" s="107">
         <v>31</v>
       </c>
-      <c r="BA29" s="110"/>
-      <c r="BB29" s="109">
+      <c r="BA29" s="108"/>
+      <c r="BB29" s="107">
         <v>1</v>
       </c>
-      <c r="BC29" s="110"/>
+      <c r="BC29" s="108"/>
     </row>
     <row r="30" spans="6:57" ht="15" customHeight="1">
       <c r="AR30" s="46"/>
@@ -14459,54 +14430,54 @@
       <c r="I31" s="106"/>
       <c r="J31" s="106"/>
       <c r="K31" s="43"/>
-      <c r="L31" s="119" t="s">
+      <c r="L31" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="108"/>
-      <c r="T31" s="108"/>
-      <c r="U31" s="108"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="113"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="113"/>
+      <c r="U31" s="113"/>
       <c r="V31" s="66"/>
-      <c r="W31" s="119" t="s">
+      <c r="W31" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="X31" s="108"/>
-      <c r="Y31" s="108"/>
-      <c r="Z31" s="108"/>
-      <c r="AA31" s="108"/>
-      <c r="AB31" s="108"/>
-      <c r="AC31" s="108"/>
-      <c r="AD31" s="108"/>
-      <c r="AE31" s="108"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="108"/>
-      <c r="AJ31" s="108"/>
-      <c r="AK31" s="108"/>
-      <c r="AL31" s="108"/>
-      <c r="AM31" s="108"/>
-      <c r="AN31" s="108"/>
-      <c r="AO31" s="108"/>
-      <c r="AP31" s="108"/>
-      <c r="AQ31" s="108"/>
-      <c r="AR31" s="108"/>
-      <c r="AS31" s="108"/>
-      <c r="AT31" s="108"/>
-      <c r="AU31" s="108"/>
-      <c r="AV31" s="108"/>
-      <c r="AW31" s="108"/>
-      <c r="AX31" s="108"/>
-      <c r="AY31" s="108"/>
-      <c r="AZ31" s="108"/>
-      <c r="BA31" s="108"/>
-      <c r="BB31" s="108"/>
-      <c r="BC31" s="108"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="113"/>
+      <c r="AJ31" s="113"/>
+      <c r="AK31" s="113"/>
+      <c r="AL31" s="113"/>
+      <c r="AM31" s="113"/>
+      <c r="AN31" s="113"/>
+      <c r="AO31" s="113"/>
+      <c r="AP31" s="113"/>
+      <c r="AQ31" s="113"/>
+      <c r="AR31" s="113"/>
+      <c r="AS31" s="113"/>
+      <c r="AT31" s="113"/>
+      <c r="AU31" s="113"/>
+      <c r="AV31" s="113"/>
+      <c r="AW31" s="113"/>
+      <c r="AX31" s="113"/>
+      <c r="AY31" s="113"/>
+      <c r="AZ31" s="113"/>
+      <c r="BA31" s="113"/>
+      <c r="BB31" s="113"/>
+      <c r="BC31" s="113"/>
       <c r="BD31" s="50"/>
       <c r="BE31" s="50"/>
     </row>
@@ -14517,50 +14488,50 @@
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
       <c r="K32" s="43"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
       <c r="V32" s="66"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="108"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="108"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="108"/>
-      <c r="AJ32" s="108"/>
-      <c r="AK32" s="108"/>
-      <c r="AL32" s="108"/>
-      <c r="AM32" s="108"/>
-      <c r="AN32" s="108"/>
-      <c r="AO32" s="108"/>
-      <c r="AP32" s="108"/>
-      <c r="AQ32" s="108"/>
-      <c r="AR32" s="108"/>
-      <c r="AS32" s="108"/>
-      <c r="AT32" s="108"/>
-      <c r="AU32" s="108"/>
-      <c r="AV32" s="108"/>
-      <c r="AW32" s="108"/>
-      <c r="AX32" s="108"/>
-      <c r="AY32" s="108"/>
-      <c r="AZ32" s="108"/>
-      <c r="BA32" s="108"/>
-      <c r="BB32" s="108"/>
-      <c r="BC32" s="108"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="113"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="113"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="113"/>
+      <c r="AC32" s="113"/>
+      <c r="AD32" s="113"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="113"/>
+      <c r="AJ32" s="113"/>
+      <c r="AK32" s="113"/>
+      <c r="AL32" s="113"/>
+      <c r="AM32" s="113"/>
+      <c r="AN32" s="113"/>
+      <c r="AO32" s="113"/>
+      <c r="AP32" s="113"/>
+      <c r="AQ32" s="113"/>
+      <c r="AR32" s="113"/>
+      <c r="AS32" s="113"/>
+      <c r="AT32" s="113"/>
+      <c r="AU32" s="113"/>
+      <c r="AV32" s="113"/>
+      <c r="AW32" s="113"/>
+      <c r="AX32" s="113"/>
+      <c r="AY32" s="113"/>
+      <c r="AZ32" s="113"/>
+      <c r="BA32" s="113"/>
+      <c r="BB32" s="113"/>
+      <c r="BC32" s="113"/>
       <c r="BD32" s="50"/>
       <c r="BE32" s="50"/>
     </row>
@@ -14892,31 +14863,31 @@
       <c r="H41" s="106"/>
       <c r="I41" s="106"/>
       <c r="J41" s="106"/>
-      <c r="K41" s="126" t="s">
+      <c r="K41" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="126"/>
-      <c r="M41" s="126"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="126"/>
-      <c r="P41" s="126"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="126"/>
-      <c r="S41" s="126"/>
-      <c r="T41" s="126"/>
-      <c r="U41" s="126"/>
-      <c r="V41" s="126"/>
-      <c r="W41" s="126"/>
-      <c r="X41" s="126"/>
-      <c r="Y41" s="126"/>
-      <c r="Z41" s="126"/>
-      <c r="AA41" s="126"/>
-      <c r="AB41" s="126"/>
-      <c r="AC41" s="126"/>
-      <c r="AD41" s="126"/>
-      <c r="AE41" s="126"/>
-      <c r="AF41" s="126"/>
-      <c r="AG41" s="126"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="114"/>
+      <c r="R41" s="114"/>
+      <c r="S41" s="114"/>
+      <c r="T41" s="114"/>
+      <c r="U41" s="114"/>
+      <c r="V41" s="114"/>
+      <c r="W41" s="114"/>
+      <c r="X41" s="114"/>
+      <c r="Y41" s="114"/>
+      <c r="Z41" s="114"/>
+      <c r="AA41" s="114"/>
+      <c r="AB41" s="114"/>
+      <c r="AC41" s="114"/>
+      <c r="AD41" s="114"/>
+      <c r="AE41" s="114"/>
+      <c r="AF41" s="114"/>
+      <c r="AG41" s="114"/>
       <c r="AH41" s="67"/>
       <c r="AI41" s="67"/>
       <c r="AJ41" s="64"/>
@@ -14946,29 +14917,29 @@
       <c r="H42" s="106"/>
       <c r="I42" s="106"/>
       <c r="J42" s="106"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="126"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="126"/>
-      <c r="P42" s="126"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="126"/>
-      <c r="U42" s="126"/>
-      <c r="V42" s="126"/>
-      <c r="W42" s="126"/>
-      <c r="X42" s="126"/>
-      <c r="Y42" s="126"/>
-      <c r="Z42" s="126"/>
-      <c r="AA42" s="126"/>
-      <c r="AB42" s="126"/>
-      <c r="AC42" s="126"/>
-      <c r="AD42" s="126"/>
-      <c r="AE42" s="126"/>
-      <c r="AF42" s="126"/>
-      <c r="AG42" s="126"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="114"/>
+      <c r="AG42" s="114"/>
       <c r="AH42" s="67"/>
       <c r="AI42" s="67"/>
       <c r="AJ42" s="64"/>
@@ -14998,29 +14969,29 @@
       <c r="H43" s="106"/>
       <c r="I43" s="106"/>
       <c r="J43" s="106"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="126"/>
-      <c r="N43" s="126"/>
-      <c r="O43" s="126"/>
-      <c r="P43" s="126"/>
-      <c r="Q43" s="126"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="126"/>
-      <c r="T43" s="126"/>
-      <c r="U43" s="126"/>
-      <c r="V43" s="126"/>
-      <c r="W43" s="126"/>
-      <c r="X43" s="126"/>
-      <c r="Y43" s="126"/>
-      <c r="Z43" s="126"/>
-      <c r="AA43" s="126"/>
-      <c r="AB43" s="126"/>
-      <c r="AC43" s="126"/>
-      <c r="AD43" s="126"/>
-      <c r="AE43" s="126"/>
-      <c r="AF43" s="126"/>
-      <c r="AG43" s="126"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="114"/>
+      <c r="AG43" s="114"/>
       <c r="AH43" s="48"/>
       <c r="AI43" s="48"/>
       <c r="AJ43" s="48"/>
@@ -15340,31 +15311,31 @@
       <c r="H50" s="106"/>
       <c r="I50" s="106"/>
       <c r="J50" s="106"/>
-      <c r="K50" s="126" t="s">
+      <c r="K50" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="126"/>
-      <c r="M50" s="126"/>
-      <c r="N50" s="126"/>
-      <c r="O50" s="126"/>
-      <c r="P50" s="126"/>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="126"/>
-      <c r="S50" s="126"/>
-      <c r="T50" s="126"/>
-      <c r="U50" s="126"/>
-      <c r="V50" s="126"/>
-      <c r="W50" s="126"/>
-      <c r="X50" s="126"/>
-      <c r="Y50" s="126"/>
-      <c r="Z50" s="126"/>
-      <c r="AA50" s="126"/>
-      <c r="AB50" s="126"/>
-      <c r="AC50" s="126"/>
-      <c r="AD50" s="126"/>
-      <c r="AE50" s="126"/>
-      <c r="AF50" s="126"/>
-      <c r="AG50" s="126"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="114"/>
+      <c r="R50" s="114"/>
+      <c r="S50" s="114"/>
+      <c r="T50" s="114"/>
+      <c r="U50" s="114"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="114"/>
+      <c r="Y50" s="114"/>
+      <c r="Z50" s="114"/>
+      <c r="AA50" s="114"/>
+      <c r="AB50" s="114"/>
+      <c r="AC50" s="114"/>
+      <c r="AD50" s="114"/>
+      <c r="AE50" s="114"/>
+      <c r="AF50" s="114"/>
+      <c r="AG50" s="114"/>
       <c r="AH50" s="67"/>
       <c r="AI50" s="67"/>
       <c r="AJ50" s="64"/>
@@ -15394,29 +15365,29 @@
       <c r="H51" s="106"/>
       <c r="I51" s="106"/>
       <c r="J51" s="106"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="126"/>
-      <c r="O51" s="126"/>
-      <c r="P51" s="126"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="126"/>
-      <c r="T51" s="126"/>
-      <c r="U51" s="126"/>
-      <c r="V51" s="126"/>
-      <c r="W51" s="126"/>
-      <c r="X51" s="126"/>
-      <c r="Y51" s="126"/>
-      <c r="Z51" s="126"/>
-      <c r="AA51" s="126"/>
-      <c r="AB51" s="126"/>
-      <c r="AC51" s="126"/>
-      <c r="AD51" s="126"/>
-      <c r="AE51" s="126"/>
-      <c r="AF51" s="126"/>
-      <c r="AG51" s="126"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="114"/>
+      <c r="Q51" s="114"/>
+      <c r="R51" s="114"/>
+      <c r="S51" s="114"/>
+      <c r="T51" s="114"/>
+      <c r="U51" s="114"/>
+      <c r="V51" s="114"/>
+      <c r="W51" s="114"/>
+      <c r="X51" s="114"/>
+      <c r="Y51" s="114"/>
+      <c r="Z51" s="114"/>
+      <c r="AA51" s="114"/>
+      <c r="AB51" s="114"/>
+      <c r="AC51" s="114"/>
+      <c r="AD51" s="114"/>
+      <c r="AE51" s="114"/>
+      <c r="AF51" s="114"/>
+      <c r="AG51" s="114"/>
       <c r="AH51" s="67"/>
       <c r="AI51" s="67"/>
       <c r="AJ51" s="64"/>
@@ -15446,29 +15417,29 @@
       <c r="H52" s="106"/>
       <c r="I52" s="106"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
-      <c r="M52" s="126"/>
-      <c r="N52" s="126"/>
-      <c r="O52" s="126"/>
-      <c r="P52" s="126"/>
-      <c r="Q52" s="126"/>
-      <c r="R52" s="126"/>
-      <c r="S52" s="126"/>
-      <c r="T52" s="126"/>
-      <c r="U52" s="126"/>
-      <c r="V52" s="126"/>
-      <c r="W52" s="126"/>
-      <c r="X52" s="126"/>
-      <c r="Y52" s="126"/>
-      <c r="Z52" s="126"/>
-      <c r="AA52" s="126"/>
-      <c r="AB52" s="126"/>
-      <c r="AC52" s="126"/>
-      <c r="AD52" s="126"/>
-      <c r="AE52" s="126"/>
-      <c r="AF52" s="126"/>
-      <c r="AG52" s="126"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="114"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="114"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="114"/>
+      <c r="Y52" s="114"/>
+      <c r="Z52" s="114"/>
+      <c r="AA52" s="114"/>
+      <c r="AB52" s="114"/>
+      <c r="AC52" s="114"/>
+      <c r="AD52" s="114"/>
+      <c r="AE52" s="114"/>
+      <c r="AF52" s="114"/>
+      <c r="AG52" s="114"/>
       <c r="AH52" s="48"/>
       <c r="AI52" s="48"/>
       <c r="AJ52" s="48"/>
@@ -15756,145 +15727,145 @@
       <c r="K66" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="L66" s="112" t="s">
+      <c r="L66" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="M66" s="112"/>
-      <c r="N66" s="112"/>
-      <c r="O66" s="112"/>
-      <c r="P66" s="112"/>
-      <c r="Q66" s="112"/>
-      <c r="R66" s="112"/>
-      <c r="S66" s="112"/>
-      <c r="T66" s="112"/>
-      <c r="U66" s="112"/>
-      <c r="V66" s="112"/>
-      <c r="W66" s="112"/>
-      <c r="X66" s="112"/>
-      <c r="Y66" s="112"/>
-      <c r="Z66" s="112"/>
-      <c r="AA66" s="112"/>
-      <c r="AB66" s="112"/>
-      <c r="AC66" s="112"/>
-      <c r="AD66" s="112"/>
-      <c r="AE66" s="112"/>
-      <c r="AF66" s="112"/>
-      <c r="AG66" s="112"/>
-      <c r="AH66" s="112"/>
-      <c r="AI66" s="112"/>
-      <c r="AJ66" s="112"/>
-      <c r="AK66" s="112"/>
-      <c r="AL66" s="112"/>
-      <c r="AM66" s="112"/>
-      <c r="AN66" s="112"/>
-      <c r="AO66" s="112"/>
-      <c r="AP66" s="112"/>
-      <c r="AQ66" s="112"/>
-      <c r="AR66" s="112"/>
-      <c r="AS66" s="112"/>
-      <c r="AT66" s="112"/>
-      <c r="AU66" s="112"/>
-      <c r="AV66" s="112"/>
-      <c r="AW66" s="112"/>
-      <c r="AX66" s="112"/>
-      <c r="AY66" s="112"/>
-      <c r="AZ66" s="112"/>
-      <c r="BA66" s="112"/>
-      <c r="BB66" s="112"/>
-      <c r="BC66" s="112"/>
+      <c r="M66" s="111"/>
+      <c r="N66" s="111"/>
+      <c r="O66" s="111"/>
+      <c r="P66" s="111"/>
+      <c r="Q66" s="111"/>
+      <c r="R66" s="111"/>
+      <c r="S66" s="111"/>
+      <c r="T66" s="111"/>
+      <c r="U66" s="111"/>
+      <c r="V66" s="111"/>
+      <c r="W66" s="111"/>
+      <c r="X66" s="111"/>
+      <c r="Y66" s="111"/>
+      <c r="Z66" s="111"/>
+      <c r="AA66" s="111"/>
+      <c r="AB66" s="111"/>
+      <c r="AC66" s="111"/>
+      <c r="AD66" s="111"/>
+      <c r="AE66" s="111"/>
+      <c r="AF66" s="111"/>
+      <c r="AG66" s="111"/>
+      <c r="AH66" s="111"/>
+      <c r="AI66" s="111"/>
+      <c r="AJ66" s="111"/>
+      <c r="AK66" s="111"/>
+      <c r="AL66" s="111"/>
+      <c r="AM66" s="111"/>
+      <c r="AN66" s="111"/>
+      <c r="AO66" s="111"/>
+      <c r="AP66" s="111"/>
+      <c r="AQ66" s="111"/>
+      <c r="AR66" s="111"/>
+      <c r="AS66" s="111"/>
+      <c r="AT66" s="111"/>
+      <c r="AU66" s="111"/>
+      <c r="AV66" s="111"/>
+      <c r="AW66" s="111"/>
+      <c r="AX66" s="111"/>
+      <c r="AY66" s="111"/>
+      <c r="AZ66" s="111"/>
+      <c r="BA66" s="111"/>
+      <c r="BB66" s="111"/>
+      <c r="BC66" s="111"/>
     </row>
     <row r="67" spans="6:57" ht="15" customHeight="1">
       <c r="K67" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L67" s="109" t="s">
+      <c r="L67" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="M67" s="110"/>
-      <c r="N67" s="109">
+      <c r="M67" s="108"/>
+      <c r="N67" s="107">
         <v>2</v>
       </c>
-      <c r="O67" s="110"/>
-      <c r="P67" s="109">
+      <c r="O67" s="108"/>
+      <c r="P67" s="107">
         <v>5</v>
       </c>
-      <c r="Q67" s="110"/>
-      <c r="R67" s="109">
+      <c r="Q67" s="108"/>
+      <c r="R67" s="107">
         <v>6</v>
       </c>
-      <c r="S67" s="110"/>
-      <c r="T67" s="109">
+      <c r="S67" s="108"/>
+      <c r="T67" s="107">
         <v>7</v>
       </c>
-      <c r="U67" s="110"/>
-      <c r="V67" s="109">
+      <c r="U67" s="108"/>
+      <c r="V67" s="107">
         <v>8</v>
       </c>
-      <c r="W67" s="110"/>
-      <c r="X67" s="109">
+      <c r="W67" s="108"/>
+      <c r="X67" s="107">
         <v>9</v>
       </c>
-      <c r="Y67" s="110"/>
-      <c r="Z67" s="109">
+      <c r="Y67" s="108"/>
+      <c r="Z67" s="107">
         <v>12</v>
       </c>
-      <c r="AA67" s="110"/>
-      <c r="AB67" s="109">
+      <c r="AA67" s="108"/>
+      <c r="AB67" s="107">
         <v>13</v>
       </c>
-      <c r="AC67" s="110"/>
-      <c r="AD67" s="131" t="s">
+      <c r="AC67" s="108"/>
+      <c r="AD67" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AE67" s="110"/>
-      <c r="AF67" s="109">
+      <c r="AE67" s="108"/>
+      <c r="AF67" s="107">
         <v>15</v>
       </c>
-      <c r="AG67" s="110"/>
-      <c r="AH67" s="109">
+      <c r="AG67" s="108"/>
+      <c r="AH67" s="107">
         <v>16</v>
       </c>
-      <c r="AI67" s="110"/>
-      <c r="AJ67" s="109">
+      <c r="AI67" s="108"/>
+      <c r="AJ67" s="107">
         <v>19</v>
       </c>
-      <c r="AK67" s="110"/>
-      <c r="AL67" s="109">
+      <c r="AK67" s="108"/>
+      <c r="AL67" s="107">
         <v>20</v>
       </c>
-      <c r="AM67" s="110"/>
-      <c r="AN67" s="109">
+      <c r="AM67" s="108"/>
+      <c r="AN67" s="107">
         <v>21</v>
       </c>
-      <c r="AO67" s="110"/>
-      <c r="AP67" s="109">
+      <c r="AO67" s="108"/>
+      <c r="AP67" s="107">
         <v>22</v>
       </c>
-      <c r="AQ67" s="110"/>
-      <c r="AR67" s="109">
+      <c r="AQ67" s="108"/>
+      <c r="AR67" s="107">
         <v>23</v>
       </c>
-      <c r="AS67" s="110"/>
-      <c r="AT67" s="109">
+      <c r="AS67" s="108"/>
+      <c r="AT67" s="107">
         <v>26</v>
       </c>
-      <c r="AU67" s="110"/>
-      <c r="AV67" s="109">
+      <c r="AU67" s="108"/>
+      <c r="AV67" s="107">
         <v>27</v>
       </c>
-      <c r="AW67" s="110"/>
-      <c r="AX67" s="109">
+      <c r="AW67" s="108"/>
+      <c r="AX67" s="107">
         <v>28</v>
       </c>
-      <c r="AY67" s="110"/>
-      <c r="AZ67" s="109">
+      <c r="AY67" s="108"/>
+      <c r="AZ67" s="107">
         <v>29</v>
       </c>
-      <c r="BA67" s="110"/>
-      <c r="BB67" s="109">
+      <c r="BA67" s="108"/>
+      <c r="BB67" s="107">
         <v>30</v>
       </c>
-      <c r="BC67" s="110"/>
+      <c r="BC67" s="108"/>
     </row>
     <row r="68" spans="6:57" ht="15" customHeight="1">
       <c r="AR68" s="42"/>
@@ -15909,10 +15880,10 @@
       <c r="I69" s="106"/>
       <c r="J69" s="106"/>
       <c r="K69" s="43"/>
-      <c r="L69" s="108"/>
-      <c r="M69" s="108"/>
-      <c r="N69" s="108"/>
-      <c r="O69" s="108"/>
+      <c r="L69" s="113"/>
+      <c r="M69" s="113"/>
+      <c r="N69" s="113"/>
+      <c r="O69" s="113"/>
       <c r="P69" s="43"/>
       <c r="Q69" s="43"/>
       <c r="R69" s="43"/>
@@ -15920,21 +15891,21 @@
       <c r="T69" s="43"/>
       <c r="U69" s="43"/>
       <c r="V69" s="43"/>
-      <c r="W69" s="108" t="s">
+      <c r="W69" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="X69" s="108"/>
-      <c r="Y69" s="108"/>
-      <c r="Z69" s="108"/>
-      <c r="AA69" s="108"/>
-      <c r="AB69" s="108"/>
-      <c r="AC69" s="108"/>
-      <c r="AD69" s="108"/>
-      <c r="AE69" s="108"/>
-      <c r="AF69" s="108"/>
-      <c r="AG69" s="108"/>
-      <c r="AH69" s="108"/>
-      <c r="AI69" s="108"/>
+      <c r="X69" s="113"/>
+      <c r="Y69" s="113"/>
+      <c r="Z69" s="113"/>
+      <c r="AA69" s="113"/>
+      <c r="AB69" s="113"/>
+      <c r="AC69" s="113"/>
+      <c r="AD69" s="113"/>
+      <c r="AE69" s="113"/>
+      <c r="AF69" s="113"/>
+      <c r="AG69" s="113"/>
+      <c r="AH69" s="113"/>
+      <c r="AI69" s="113"/>
       <c r="AJ69" s="43"/>
       <c r="AK69" s="43"/>
       <c r="AL69" s="43"/>
@@ -15953,12 +15924,12 @@
       <c r="AY69" s="47"/>
       <c r="AZ69" s="47"/>
       <c r="BA69" s="47"/>
-      <c r="BB69" s="108" t="s">
+      <c r="BB69" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="BC69" s="108"/>
-      <c r="BD69" s="108"/>
-      <c r="BE69" s="108"/>
+      <c r="BC69" s="113"/>
+      <c r="BD69" s="113"/>
+      <c r="BE69" s="113"/>
     </row>
     <row r="70" spans="6:57" ht="15" customHeight="1">
       <c r="F70" s="106"/>
@@ -15967,10 +15938,10 @@
       <c r="I70" s="106"/>
       <c r="J70" s="106"/>
       <c r="K70" s="43"/>
-      <c r="L70" s="108"/>
-      <c r="M70" s="108"/>
-      <c r="N70" s="108"/>
-      <c r="O70" s="108"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="113"/>
+      <c r="O70" s="113"/>
       <c r="P70" s="43"/>
       <c r="Q70" s="43"/>
       <c r="R70" s="43"/>
@@ -15978,19 +15949,19 @@
       <c r="T70" s="43"/>
       <c r="U70" s="43"/>
       <c r="V70" s="43"/>
-      <c r="W70" s="108"/>
-      <c r="X70" s="108"/>
-      <c r="Y70" s="108"/>
-      <c r="Z70" s="108"/>
-      <c r="AA70" s="108"/>
-      <c r="AB70" s="108"/>
-      <c r="AC70" s="108"/>
-      <c r="AD70" s="108"/>
-      <c r="AE70" s="108"/>
-      <c r="AF70" s="108"/>
-      <c r="AG70" s="108"/>
-      <c r="AH70" s="108"/>
-      <c r="AI70" s="108"/>
+      <c r="W70" s="113"/>
+      <c r="X70" s="113"/>
+      <c r="Y70" s="113"/>
+      <c r="Z70" s="113"/>
+      <c r="AA70" s="113"/>
+      <c r="AB70" s="113"/>
+      <c r="AC70" s="113"/>
+      <c r="AD70" s="113"/>
+      <c r="AE70" s="113"/>
+      <c r="AF70" s="113"/>
+      <c r="AG70" s="113"/>
+      <c r="AH70" s="113"/>
+      <c r="AI70" s="113"/>
       <c r="AJ70" s="43"/>
       <c r="AK70" s="43"/>
       <c r="AL70" s="43"/>
@@ -16009,10 +15980,10 @@
       <c r="AY70" s="47"/>
       <c r="AZ70" s="47"/>
       <c r="BA70" s="47"/>
-      <c r="BB70" s="108"/>
-      <c r="BC70" s="108"/>
-      <c r="BD70" s="108"/>
-      <c r="BE70" s="108"/>
+      <c r="BB70" s="113"/>
+      <c r="BC70" s="113"/>
+      <c r="BD70" s="113"/>
+      <c r="BE70" s="113"/>
     </row>
     <row r="71" spans="6:57" ht="15" customHeight="1">
       <c r="F71" s="106"/>
@@ -16075,52 +16046,52 @@
       <c r="K72" s="43"/>
       <c r="L72" s="43"/>
       <c r="M72" s="43"/>
-      <c r="N72" s="127" t="s">
+      <c r="N72" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="127"/>
-      <c r="P72" s="127"/>
-      <c r="Q72" s="127"/>
-      <c r="R72" s="127"/>
-      <c r="S72" s="127"/>
-      <c r="T72" s="127"/>
-      <c r="U72" s="127"/>
-      <c r="V72" s="127"/>
-      <c r="W72" s="127"/>
-      <c r="X72" s="127"/>
-      <c r="Y72" s="127"/>
-      <c r="Z72" s="107" t="s">
+      <c r="O72" s="121"/>
+      <c r="P72" s="121"/>
+      <c r="Q72" s="121"/>
+      <c r="R72" s="121"/>
+      <c r="S72" s="121"/>
+      <c r="T72" s="121"/>
+      <c r="U72" s="121"/>
+      <c r="V72" s="121"/>
+      <c r="W72" s="121"/>
+      <c r="X72" s="121"/>
+      <c r="Y72" s="121"/>
+      <c r="Z72" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="AA72" s="107"/>
-      <c r="AB72" s="107"/>
-      <c r="AC72" s="107"/>
-      <c r="AD72" s="107"/>
-      <c r="AE72" s="107"/>
-      <c r="AF72" s="107"/>
-      <c r="AG72" s="107"/>
+      <c r="AA72" s="131"/>
+      <c r="AB72" s="131"/>
+      <c r="AC72" s="131"/>
+      <c r="AD72" s="131"/>
+      <c r="AE72" s="131"/>
+      <c r="AF72" s="131"/>
+      <c r="AG72" s="131"/>
       <c r="AH72" s="43"/>
       <c r="AI72" s="43"/>
-      <c r="AJ72" s="119" t="s">
+      <c r="AJ72" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="AK72" s="119"/>
-      <c r="AL72" s="119"/>
-      <c r="AM72" s="119"/>
-      <c r="AN72" s="119"/>
-      <c r="AO72" s="119"/>
-      <c r="AP72" s="119"/>
-      <c r="AQ72" s="119"/>
+      <c r="AK72" s="112"/>
+      <c r="AL72" s="112"/>
+      <c r="AM72" s="112"/>
+      <c r="AN72" s="112"/>
+      <c r="AO72" s="112"/>
+      <c r="AP72" s="112"/>
+      <c r="AQ72" s="112"/>
       <c r="AR72" s="42"/>
       <c r="AS72" s="42"/>
-      <c r="AT72" s="108"/>
-      <c r="AU72" s="108"/>
-      <c r="AV72" s="108"/>
-      <c r="AW72" s="108"/>
-      <c r="AX72" s="108"/>
-      <c r="AY72" s="108"/>
-      <c r="AZ72" s="108"/>
-      <c r="BA72" s="108"/>
+      <c r="AT72" s="113"/>
+      <c r="AU72" s="113"/>
+      <c r="AV72" s="113"/>
+      <c r="AW72" s="113"/>
+      <c r="AX72" s="113"/>
+      <c r="AY72" s="113"/>
+      <c r="AZ72" s="113"/>
+      <c r="BA72" s="113"/>
       <c r="BB72" s="43"/>
       <c r="BC72" s="43"/>
     </row>
@@ -16133,46 +16104,46 @@
       <c r="K73" s="43"/>
       <c r="L73" s="43"/>
       <c r="M73" s="43"/>
-      <c r="N73" s="127"/>
-      <c r="O73" s="127"/>
-      <c r="P73" s="127"/>
-      <c r="Q73" s="127"/>
-      <c r="R73" s="127"/>
-      <c r="S73" s="127"/>
-      <c r="T73" s="127"/>
-      <c r="U73" s="127"/>
-      <c r="V73" s="127"/>
-      <c r="W73" s="127"/>
-      <c r="X73" s="127"/>
-      <c r="Y73" s="127"/>
-      <c r="Z73" s="107"/>
-      <c r="AA73" s="107"/>
-      <c r="AB73" s="107"/>
-      <c r="AC73" s="107"/>
-      <c r="AD73" s="107"/>
-      <c r="AE73" s="107"/>
-      <c r="AF73" s="107"/>
-      <c r="AG73" s="107"/>
+      <c r="N73" s="121"/>
+      <c r="O73" s="121"/>
+      <c r="P73" s="121"/>
+      <c r="Q73" s="121"/>
+      <c r="R73" s="121"/>
+      <c r="S73" s="121"/>
+      <c r="T73" s="121"/>
+      <c r="U73" s="121"/>
+      <c r="V73" s="121"/>
+      <c r="W73" s="121"/>
+      <c r="X73" s="121"/>
+      <c r="Y73" s="121"/>
+      <c r="Z73" s="131"/>
+      <c r="AA73" s="131"/>
+      <c r="AB73" s="131"/>
+      <c r="AC73" s="131"/>
+      <c r="AD73" s="131"/>
+      <c r="AE73" s="131"/>
+      <c r="AF73" s="131"/>
+      <c r="AG73" s="131"/>
       <c r="AH73" s="43"/>
       <c r="AI73" s="43"/>
-      <c r="AJ73" s="119"/>
-      <c r="AK73" s="119"/>
-      <c r="AL73" s="119"/>
-      <c r="AM73" s="119"/>
-      <c r="AN73" s="119"/>
-      <c r="AO73" s="119"/>
-      <c r="AP73" s="119"/>
-      <c r="AQ73" s="119"/>
+      <c r="AJ73" s="112"/>
+      <c r="AK73" s="112"/>
+      <c r="AL73" s="112"/>
+      <c r="AM73" s="112"/>
+      <c r="AN73" s="112"/>
+      <c r="AO73" s="112"/>
+      <c r="AP73" s="112"/>
+      <c r="AQ73" s="112"/>
       <c r="AR73" s="42"/>
       <c r="AS73" s="42"/>
-      <c r="AT73" s="108"/>
-      <c r="AU73" s="108"/>
-      <c r="AV73" s="108"/>
-      <c r="AW73" s="108"/>
-      <c r="AX73" s="108"/>
-      <c r="AY73" s="108"/>
-      <c r="AZ73" s="108"/>
-      <c r="BA73" s="108"/>
+      <c r="AT73" s="113"/>
+      <c r="AU73" s="113"/>
+      <c r="AV73" s="113"/>
+      <c r="AW73" s="113"/>
+      <c r="AX73" s="113"/>
+      <c r="AY73" s="113"/>
+      <c r="AZ73" s="113"/>
+      <c r="BA73" s="113"/>
       <c r="BB73" s="43"/>
       <c r="BC73" s="43"/>
     </row>
@@ -16244,13 +16215,13 @@
       <c r="R75" s="43"/>
       <c r="S75" s="43"/>
       <c r="T75" s="43"/>
-      <c r="U75" s="128" t="s">
+      <c r="U75" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="V75" s="128"/>
-      <c r="W75" s="128"/>
-      <c r="X75" s="128"/>
-      <c r="Y75" s="128"/>
+      <c r="V75" s="122"/>
+      <c r="W75" s="122"/>
+      <c r="X75" s="122"/>
+      <c r="Y75" s="122"/>
       <c r="Z75" s="43"/>
       <c r="AA75" s="43"/>
       <c r="AB75" s="43"/>
@@ -16298,11 +16269,11 @@
       <c r="R76" s="43"/>
       <c r="S76" s="43"/>
       <c r="T76" s="43"/>
-      <c r="U76" s="128"/>
-      <c r="V76" s="128"/>
-      <c r="W76" s="128"/>
-      <c r="X76" s="128"/>
-      <c r="Y76" s="128"/>
+      <c r="U76" s="122"/>
+      <c r="V76" s="122"/>
+      <c r="W76" s="122"/>
+      <c r="X76" s="122"/>
+      <c r="Y76" s="122"/>
       <c r="Z76" s="43"/>
       <c r="AA76" s="43"/>
       <c r="AB76" s="43"/>
@@ -16347,13 +16318,13 @@
       <c r="I78" s="106"/>
       <c r="J78" s="106"/>
       <c r="K78" s="43"/>
-      <c r="L78" s="116"/>
-      <c r="M78" s="116"/>
-      <c r="N78" s="116"/>
-      <c r="O78" s="116"/>
-      <c r="P78" s="116"/>
-      <c r="Q78" s="116"/>
-      <c r="R78" s="116"/>
+      <c r="L78" s="128"/>
+      <c r="M78" s="128"/>
+      <c r="N78" s="128"/>
+      <c r="O78" s="128"/>
+      <c r="P78" s="128"/>
+      <c r="Q78" s="128"/>
+      <c r="R78" s="128"/>
       <c r="S78" s="43"/>
       <c r="T78" s="43"/>
       <c r="U78" s="43"/>
@@ -16365,14 +16336,14 @@
       <c r="AA78" s="81"/>
       <c r="AB78" s="81"/>
       <c r="AC78" s="81"/>
-      <c r="AD78" s="117" t="s">
+      <c r="AD78" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="AE78" s="117"/>
-      <c r="AF78" s="117"/>
-      <c r="AG78" s="117"/>
-      <c r="AH78" s="117"/>
-      <c r="AI78" s="117"/>
+      <c r="AE78" s="129"/>
+      <c r="AF78" s="129"/>
+      <c r="AG78" s="129"/>
+      <c r="AH78" s="129"/>
+      <c r="AI78" s="129"/>
       <c r="AJ78" s="43"/>
       <c r="AK78" s="43"/>
       <c r="AL78" s="43"/>
@@ -16401,13 +16372,13 @@
       <c r="I79" s="106"/>
       <c r="J79" s="106"/>
       <c r="K79" s="43"/>
-      <c r="L79" s="116"/>
-      <c r="M79" s="116"/>
-      <c r="N79" s="116"/>
-      <c r="O79" s="116"/>
-      <c r="P79" s="116"/>
-      <c r="Q79" s="116"/>
-      <c r="R79" s="116"/>
+      <c r="L79" s="128"/>
+      <c r="M79" s="128"/>
+      <c r="N79" s="128"/>
+      <c r="O79" s="128"/>
+      <c r="P79" s="128"/>
+      <c r="Q79" s="128"/>
+      <c r="R79" s="128"/>
       <c r="S79" s="43"/>
       <c r="T79" s="43"/>
       <c r="U79" s="43"/>
@@ -16419,12 +16390,12 @@
       <c r="AA79" s="81"/>
       <c r="AB79" s="81"/>
       <c r="AC79" s="81"/>
-      <c r="AD79" s="117"/>
-      <c r="AE79" s="117"/>
-      <c r="AF79" s="117"/>
-      <c r="AG79" s="117"/>
-      <c r="AH79" s="117"/>
-      <c r="AI79" s="117"/>
+      <c r="AD79" s="129"/>
+      <c r="AE79" s="129"/>
+      <c r="AF79" s="129"/>
+      <c r="AG79" s="129"/>
+      <c r="AH79" s="129"/>
+      <c r="AI79" s="129"/>
       <c r="AJ79" s="43"/>
       <c r="AK79" s="43"/>
       <c r="AL79" s="43"/>
@@ -16509,22 +16480,22 @@
       <c r="M81" s="43"/>
       <c r="N81" s="43"/>
       <c r="O81" s="43"/>
-      <c r="P81" s="118" t="s">
+      <c r="P81" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="Q81" s="118"/>
-      <c r="R81" s="118"/>
-      <c r="S81" s="118"/>
-      <c r="T81" s="118"/>
-      <c r="U81" s="118"/>
-      <c r="V81" s="118"/>
-      <c r="W81" s="118"/>
-      <c r="X81" s="118"/>
-      <c r="Y81" s="118"/>
-      <c r="Z81" s="118"/>
-      <c r="AA81" s="118"/>
-      <c r="AB81" s="118"/>
-      <c r="AC81" s="118"/>
+      <c r="Q81" s="130"/>
+      <c r="R81" s="130"/>
+      <c r="S81" s="130"/>
+      <c r="T81" s="130"/>
+      <c r="U81" s="130"/>
+      <c r="V81" s="130"/>
+      <c r="W81" s="130"/>
+      <c r="X81" s="130"/>
+      <c r="Y81" s="130"/>
+      <c r="Z81" s="130"/>
+      <c r="AA81" s="130"/>
+      <c r="AB81" s="130"/>
+      <c r="AC81" s="130"/>
       <c r="AD81" s="44"/>
       <c r="AE81" s="44"/>
       <c r="AF81" s="44"/>
@@ -16563,20 +16534,20 @@
       <c r="M82" s="43"/>
       <c r="N82" s="43"/>
       <c r="O82" s="43"/>
-      <c r="P82" s="118"/>
-      <c r="Q82" s="118"/>
-      <c r="R82" s="118"/>
-      <c r="S82" s="118"/>
-      <c r="T82" s="118"/>
-      <c r="U82" s="118"/>
-      <c r="V82" s="118"/>
-      <c r="W82" s="118"/>
-      <c r="X82" s="118"/>
-      <c r="Y82" s="118"/>
-      <c r="Z82" s="118"/>
-      <c r="AA82" s="118"/>
-      <c r="AB82" s="118"/>
-      <c r="AC82" s="118"/>
+      <c r="P82" s="130"/>
+      <c r="Q82" s="130"/>
+      <c r="R82" s="130"/>
+      <c r="S82" s="130"/>
+      <c r="T82" s="130"/>
+      <c r="U82" s="130"/>
+      <c r="V82" s="130"/>
+      <c r="W82" s="130"/>
+      <c r="X82" s="130"/>
+      <c r="Y82" s="130"/>
+      <c r="Z82" s="130"/>
+      <c r="AA82" s="130"/>
+      <c r="AB82" s="130"/>
+      <c r="AC82" s="130"/>
       <c r="AD82" s="44"/>
       <c r="AE82" s="44"/>
       <c r="AF82" s="44"/>
@@ -16670,17 +16641,17 @@
       <c r="P84" s="43"/>
       <c r="Q84" s="43"/>
       <c r="R84" s="43"/>
-      <c r="S84" s="119" t="s">
+      <c r="S84" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="T84" s="119"/>
-      <c r="U84" s="119"/>
-      <c r="V84" s="119"/>
-      <c r="W84" s="119"/>
-      <c r="X84" s="119"/>
-      <c r="Y84" s="119"/>
-      <c r="Z84" s="119"/>
-      <c r="AA84" s="119"/>
+      <c r="T84" s="112"/>
+      <c r="U84" s="112"/>
+      <c r="V84" s="112"/>
+      <c r="W84" s="112"/>
+      <c r="X84" s="112"/>
+      <c r="Y84" s="112"/>
+      <c r="Z84" s="112"/>
+      <c r="AA84" s="112"/>
       <c r="AB84" s="44"/>
       <c r="AC84" s="44"/>
       <c r="AD84" s="44"/>
@@ -16724,15 +16695,15 @@
       <c r="P85" s="43"/>
       <c r="Q85" s="43"/>
       <c r="R85" s="43"/>
-      <c r="S85" s="119"/>
-      <c r="T85" s="119"/>
-      <c r="U85" s="119"/>
-      <c r="V85" s="119"/>
-      <c r="W85" s="119"/>
-      <c r="X85" s="119"/>
-      <c r="Y85" s="119"/>
-      <c r="Z85" s="119"/>
-      <c r="AA85" s="119"/>
+      <c r="S85" s="112"/>
+      <c r="T85" s="112"/>
+      <c r="U85" s="112"/>
+      <c r="V85" s="112"/>
+      <c r="W85" s="112"/>
+      <c r="X85" s="112"/>
+      <c r="Y85" s="112"/>
+      <c r="Z85" s="112"/>
+      <c r="AA85" s="112"/>
       <c r="AB85" s="44"/>
       <c r="AC85" s="44"/>
       <c r="AD85" s="44"/>
@@ -16799,22 +16770,22 @@
       <c r="AG87" s="45"/>
       <c r="AH87" s="45"/>
       <c r="AI87" s="45"/>
-      <c r="AJ87" s="125" t="s">
+      <c r="AJ87" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AK87" s="125"/>
-      <c r="AL87" s="125"/>
-      <c r="AM87" s="125"/>
-      <c r="AN87" s="125"/>
-      <c r="AO87" s="125"/>
-      <c r="AP87" s="125"/>
-      <c r="AQ87" s="125"/>
+      <c r="AK87" s="120"/>
+      <c r="AL87" s="120"/>
+      <c r="AM87" s="120"/>
+      <c r="AN87" s="120"/>
+      <c r="AO87" s="120"/>
+      <c r="AP87" s="120"/>
+      <c r="AQ87" s="120"/>
       <c r="AR87" s="42"/>
       <c r="AS87" s="42"/>
-      <c r="AT87" s="126"/>
-      <c r="AU87" s="126"/>
-      <c r="AV87" s="126"/>
-      <c r="AW87" s="126"/>
+      <c r="AT87" s="114"/>
+      <c r="AU87" s="114"/>
+      <c r="AV87" s="114"/>
+      <c r="AW87" s="114"/>
       <c r="AX87" s="43"/>
       <c r="AY87" s="43"/>
       <c r="AZ87" s="43"/>
@@ -16853,20 +16824,20 @@
       <c r="AG88" s="45"/>
       <c r="AH88" s="45"/>
       <c r="AI88" s="45"/>
-      <c r="AJ88" s="125"/>
-      <c r="AK88" s="125"/>
-      <c r="AL88" s="125"/>
-      <c r="AM88" s="125"/>
-      <c r="AN88" s="125"/>
-      <c r="AO88" s="125"/>
-      <c r="AP88" s="125"/>
-      <c r="AQ88" s="125"/>
+      <c r="AJ88" s="120"/>
+      <c r="AK88" s="120"/>
+      <c r="AL88" s="120"/>
+      <c r="AM88" s="120"/>
+      <c r="AN88" s="120"/>
+      <c r="AO88" s="120"/>
+      <c r="AP88" s="120"/>
+      <c r="AQ88" s="120"/>
       <c r="AR88" s="42"/>
       <c r="AS88" s="42"/>
-      <c r="AT88" s="126"/>
-      <c r="AU88" s="126"/>
-      <c r="AV88" s="126"/>
-      <c r="AW88" s="126"/>
+      <c r="AT88" s="114"/>
+      <c r="AU88" s="114"/>
+      <c r="AV88" s="114"/>
+      <c r="AW88" s="114"/>
       <c r="AX88" s="43"/>
       <c r="AY88" s="43"/>
       <c r="AZ88" s="43"/>
@@ -17247,22 +17218,22 @@
       <c r="AG96" s="45"/>
       <c r="AH96" s="45"/>
       <c r="AI96" s="45"/>
-      <c r="AJ96" s="125" t="s">
+      <c r="AJ96" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AK96" s="125"/>
-      <c r="AL96" s="125"/>
-      <c r="AM96" s="125"/>
-      <c r="AN96" s="125"/>
-      <c r="AO96" s="125"/>
-      <c r="AP96" s="125"/>
-      <c r="AQ96" s="125"/>
+      <c r="AK96" s="120"/>
+      <c r="AL96" s="120"/>
+      <c r="AM96" s="120"/>
+      <c r="AN96" s="120"/>
+      <c r="AO96" s="120"/>
+      <c r="AP96" s="120"/>
+      <c r="AQ96" s="120"/>
       <c r="AR96" s="42"/>
       <c r="AS96" s="42"/>
-      <c r="AT96" s="126"/>
-      <c r="AU96" s="126"/>
-      <c r="AV96" s="126"/>
-      <c r="AW96" s="126"/>
+      <c r="AT96" s="114"/>
+      <c r="AU96" s="114"/>
+      <c r="AV96" s="114"/>
+      <c r="AW96" s="114"/>
       <c r="AX96" s="43"/>
       <c r="AY96" s="43"/>
       <c r="AZ96" s="43"/>
@@ -17301,20 +17272,20 @@
       <c r="AG97" s="45"/>
       <c r="AH97" s="45"/>
       <c r="AI97" s="45"/>
-      <c r="AJ97" s="125"/>
-      <c r="AK97" s="125"/>
-      <c r="AL97" s="125"/>
-      <c r="AM97" s="125"/>
-      <c r="AN97" s="125"/>
-      <c r="AO97" s="125"/>
-      <c r="AP97" s="125"/>
-      <c r="AQ97" s="125"/>
+      <c r="AJ97" s="120"/>
+      <c r="AK97" s="120"/>
+      <c r="AL97" s="120"/>
+      <c r="AM97" s="120"/>
+      <c r="AN97" s="120"/>
+      <c r="AO97" s="120"/>
+      <c r="AP97" s="120"/>
+      <c r="AQ97" s="120"/>
       <c r="AR97" s="42"/>
       <c r="AS97" s="42"/>
-      <c r="AT97" s="126"/>
-      <c r="AU97" s="126"/>
-      <c r="AV97" s="126"/>
-      <c r="AW97" s="126"/>
+      <c r="AT97" s="114"/>
+      <c r="AU97" s="114"/>
+      <c r="AV97" s="114"/>
+      <c r="AW97" s="114"/>
       <c r="AX97" s="43"/>
       <c r="AY97" s="43"/>
       <c r="AZ97" s="43"/>
@@ -17656,35 +17627,101 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="F41:J48"/>
-    <mergeCell ref="F50:J57"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AX29:AY29"/>
-    <mergeCell ref="AZ29:BA29"/>
-    <mergeCell ref="BB29:BC29"/>
-    <mergeCell ref="F31:J38"/>
-    <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="AL29:AM29"/>
-    <mergeCell ref="AN29:AO29"/>
-    <mergeCell ref="AP29:AQ29"/>
-    <mergeCell ref="AR29:AS29"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AB67:AC67"/>
-    <mergeCell ref="AD67:AE67"/>
-    <mergeCell ref="AC15:AM17"/>
-    <mergeCell ref="L28:BC28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="L31:U32"/>
-    <mergeCell ref="W31:BC32"/>
-    <mergeCell ref="K41:AG43"/>
-    <mergeCell ref="K50:AG52"/>
+    <mergeCell ref="F96:J103"/>
+    <mergeCell ref="Z72:AG73"/>
+    <mergeCell ref="W69:AI70"/>
+    <mergeCell ref="F69:J76"/>
+    <mergeCell ref="L69:O70"/>
+    <mergeCell ref="F87:J94"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="L66:BC66"/>
+    <mergeCell ref="AJ67:AK67"/>
+    <mergeCell ref="AL67:AM67"/>
+    <mergeCell ref="AN67:AO67"/>
+    <mergeCell ref="AP67:AQ67"/>
+    <mergeCell ref="AR67:AS67"/>
+    <mergeCell ref="AT67:AU67"/>
+    <mergeCell ref="AV67:AW67"/>
+    <mergeCell ref="AX67:AY67"/>
+    <mergeCell ref="AH67:AI67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="F78:J85"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:Z4"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="AI4:AP4"/>
+    <mergeCell ref="AQ4:AZ4"/>
+    <mergeCell ref="BA4:BH4"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="L3:BQ3"/>
+    <mergeCell ref="BI4:BQ4"/>
+    <mergeCell ref="BD5:BE5"/>
+    <mergeCell ref="BF5:BG5"/>
+    <mergeCell ref="BH5:BI5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L78:R79"/>
+    <mergeCell ref="AD78:AI79"/>
+    <mergeCell ref="P81:AC82"/>
+    <mergeCell ref="S84:AA85"/>
+    <mergeCell ref="DB5:DC5"/>
+    <mergeCell ref="CJ5:CK5"/>
+    <mergeCell ref="CL5:CM5"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CR5:CS5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="BL5:BM5"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="BV5:BW5"/>
+    <mergeCell ref="BX5:BY5"/>
+    <mergeCell ref="BN5:BO5"/>
+    <mergeCell ref="BP5:BQ5"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BT5:BU5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="AA10:AP12"/>
+    <mergeCell ref="DP5:DQ5"/>
+    <mergeCell ref="BR3:DQ3"/>
+    <mergeCell ref="BR4:BZ4"/>
+    <mergeCell ref="CA4:CH4"/>
+    <mergeCell ref="CI4:CP4"/>
+    <mergeCell ref="CQ4:CZ4"/>
+    <mergeCell ref="DA4:DH4"/>
+    <mergeCell ref="DI4:DP4"/>
+    <mergeCell ref="DD5:DE5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CD5:CE5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="DF5:DG5"/>
+    <mergeCell ref="DH5:DI5"/>
+    <mergeCell ref="DJ5:DK5"/>
+    <mergeCell ref="DL5:DM5"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CX5:CY5"/>
+    <mergeCell ref="CZ5:DA5"/>
+    <mergeCell ref="DN5:DO5"/>
     <mergeCell ref="AQ10:BQ12"/>
     <mergeCell ref="Q7:AB8"/>
     <mergeCell ref="AJ87:AQ88"/>
@@ -17709,101 +17746,35 @@
     <mergeCell ref="V67:W67"/>
     <mergeCell ref="X67:Y67"/>
     <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="DP5:DQ5"/>
-    <mergeCell ref="BR3:DQ3"/>
-    <mergeCell ref="BR4:BZ4"/>
-    <mergeCell ref="CA4:CH4"/>
-    <mergeCell ref="CI4:CP4"/>
-    <mergeCell ref="CQ4:CZ4"/>
-    <mergeCell ref="DA4:DH4"/>
-    <mergeCell ref="DI4:DP4"/>
-    <mergeCell ref="DD5:DE5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CD5:CE5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="DF5:DG5"/>
-    <mergeCell ref="DH5:DI5"/>
-    <mergeCell ref="DJ5:DK5"/>
-    <mergeCell ref="DL5:DM5"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CX5:CY5"/>
-    <mergeCell ref="CZ5:DA5"/>
-    <mergeCell ref="DN5:DO5"/>
-    <mergeCell ref="L78:R79"/>
-    <mergeCell ref="AD78:AI79"/>
-    <mergeCell ref="P81:AC82"/>
-    <mergeCell ref="S84:AA85"/>
-    <mergeCell ref="DB5:DC5"/>
-    <mergeCell ref="CJ5:CK5"/>
-    <mergeCell ref="CL5:CM5"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CR5:CS5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="BL5:BM5"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="BV5:BW5"/>
-    <mergeCell ref="BX5:BY5"/>
-    <mergeCell ref="BN5:BO5"/>
-    <mergeCell ref="BP5:BQ5"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BT5:BU5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="AA10:AP12"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:Z4"/>
-    <mergeCell ref="AA4:AH4"/>
-    <mergeCell ref="AI4:AP4"/>
-    <mergeCell ref="AQ4:AZ4"/>
-    <mergeCell ref="BA4:BH4"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="L3:BQ3"/>
-    <mergeCell ref="BI4:BQ4"/>
-    <mergeCell ref="BD5:BE5"/>
-    <mergeCell ref="BF5:BG5"/>
-    <mergeCell ref="BH5:BI5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="F96:J103"/>
-    <mergeCell ref="Z72:AG73"/>
-    <mergeCell ref="W69:AI70"/>
-    <mergeCell ref="F69:J76"/>
-    <mergeCell ref="L69:O70"/>
-    <mergeCell ref="F87:J94"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="L66:BC66"/>
-    <mergeCell ref="AJ67:AK67"/>
-    <mergeCell ref="AL67:AM67"/>
-    <mergeCell ref="AN67:AO67"/>
-    <mergeCell ref="AP67:AQ67"/>
-    <mergeCell ref="AR67:AS67"/>
-    <mergeCell ref="AT67:AU67"/>
-    <mergeCell ref="AV67:AW67"/>
-    <mergeCell ref="AX67:AY67"/>
-    <mergeCell ref="AH67:AI67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="F78:J85"/>
+    <mergeCell ref="AB67:AC67"/>
+    <mergeCell ref="AD67:AE67"/>
+    <mergeCell ref="AC15:AM17"/>
+    <mergeCell ref="L28:BC28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="L31:U32"/>
+    <mergeCell ref="W31:BC32"/>
+    <mergeCell ref="K41:AG43"/>
+    <mergeCell ref="K50:AG52"/>
+    <mergeCell ref="F41:J48"/>
+    <mergeCell ref="F50:J57"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AX29:AY29"/>
+    <mergeCell ref="AZ29:BA29"/>
+    <mergeCell ref="BB29:BC29"/>
+    <mergeCell ref="F31:J38"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="AL29:AM29"/>
+    <mergeCell ref="AN29:AO29"/>
+    <mergeCell ref="AP29:AQ29"/>
+    <mergeCell ref="AR29:AS29"/>
+    <mergeCell ref="AT29:AU29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19290,7 +19261,7 @@
       <pane xSplit="19" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="16.5"/>
@@ -19771,45 +19742,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="D1" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="136" t="s">
+      <c r="E1" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="147" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="147" t="s">
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="148"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="145" t="s">
+      <c r="N1" s="136"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="156" t="s">
+      <c r="Q1" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="156" t="s">
+      <c r="R1" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="156" t="s">
+      <c r="S1" s="145" t="s">
         <v>54</v>
       </c>
       <c r="T1" s="104" t="s">
@@ -19845,59 +19816,59 @@
       <c r="AV1" s="105"/>
       <c r="AW1" s="105"/>
       <c r="AX1" s="105"/>
-      <c r="AY1" s="153" t="s">
+      <c r="AY1" s="141" t="s">
         <v>367</v>
       </c>
-      <c r="AZ1" s="154"/>
-      <c r="BA1" s="154"/>
-      <c r="BB1" s="154"/>
-      <c r="BC1" s="154"/>
-      <c r="BD1" s="154"/>
-      <c r="BE1" s="154"/>
-      <c r="BF1" s="154"/>
-      <c r="BG1" s="154"/>
-      <c r="BH1" s="154"/>
-      <c r="BI1" s="154"/>
-      <c r="BJ1" s="154"/>
-      <c r="BK1" s="154"/>
-      <c r="BL1" s="154"/>
-      <c r="BM1" s="154"/>
-      <c r="BN1" s="154"/>
-      <c r="BO1" s="154"/>
-      <c r="BP1" s="154"/>
-      <c r="BQ1" s="154"/>
-      <c r="BR1" s="154"/>
-      <c r="BS1" s="154"/>
-      <c r="BT1" s="154"/>
-      <c r="BU1" s="154"/>
-      <c r="BV1" s="154"/>
-      <c r="BW1" s="154"/>
-      <c r="BX1" s="154"/>
-      <c r="BY1" s="154"/>
-      <c r="BZ1" s="154"/>
-      <c r="CA1" s="154"/>
-      <c r="CB1" s="155"/>
+      <c r="AZ1" s="142"/>
+      <c r="BA1" s="142"/>
+      <c r="BB1" s="142"/>
+      <c r="BC1" s="142"/>
+      <c r="BD1" s="142"/>
+      <c r="BE1" s="142"/>
+      <c r="BF1" s="142"/>
+      <c r="BG1" s="142"/>
+      <c r="BH1" s="142"/>
+      <c r="BI1" s="142"/>
+      <c r="BJ1" s="142"/>
+      <c r="BK1" s="142"/>
+      <c r="BL1" s="142"/>
+      <c r="BM1" s="142"/>
+      <c r="BN1" s="142"/>
+      <c r="BO1" s="142"/>
+      <c r="BP1" s="142"/>
+      <c r="BQ1" s="142"/>
+      <c r="BR1" s="142"/>
+      <c r="BS1" s="142"/>
+      <c r="BT1" s="142"/>
+      <c r="BU1" s="142"/>
+      <c r="BV1" s="142"/>
+      <c r="BW1" s="142"/>
+      <c r="BX1" s="142"/>
+      <c r="BY1" s="142"/>
+      <c r="BZ1" s="142"/>
+      <c r="CA1" s="142"/>
+      <c r="CB1" s="143"/>
     </row>
     <row r="2" spans="1:81" s="7" customFormat="1" ht="15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
       <c r="T2" s="16">
         <v>43070</v>
       </c>
@@ -20086,10 +20057,10 @@
       </c>
     </row>
     <row r="3" spans="1:81" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="146"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="145"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="82" t="s">
         <v>56</v>
       </c>
@@ -20123,10 +20094,10 @@
       <c r="O3" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
       <c r="T3" s="17" t="str">
         <f>TEXT(T$2,"aaa")</f>
         <v>金</v>
@@ -20374,16 +20345,16 @@
       <c r="CC3" s="17"/>
     </row>
     <row r="4" spans="1:81">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="153" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="144"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="155"/>
       <c r="J4" s="8"/>
       <c r="K4" s="10"/>
       <c r="L4" s="11" t="str">
@@ -20484,18 +20455,16 @@
         <v>68</v>
       </c>
       <c r="J5" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K5" s="10">
         <v>43320</v>
       </c>
       <c r="L5" s="11">
         <f>IF(AND(J5&lt;&gt;"",K5&lt;&gt;""),WORKDAY(K5,J5-0.5,祝日!$B$1:$B$29),"")</f>
-        <v>43322</v>
-      </c>
-      <c r="M5" s="8">
-        <v>3</v>
-      </c>
+        <v>43329</v>
+      </c>
+      <c r="M5" s="8"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="str">
         <f>IF(AND(M5&lt;&gt;"",N5&lt;&gt;""),WORKDAY(N5,M5-0.5,祝日!$B$1:$B$29),"")</f>
@@ -20503,15 +20472,15 @@
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="12">
-        <f t="shared" ref="Q5:Q43" si="2">J5*P5</f>
+        <f t="shared" ref="Q5" si="2">J5*P5</f>
         <v>0</v>
       </c>
       <c r="R5" s="13">
-        <f t="shared" ref="R5:R29" si="3">IFERROR(Q5/J5, 0)</f>
+        <f t="shared" ref="R5" si="3">IFERROR(Q5/J5, 0)</f>
         <v>0</v>
       </c>
       <c r="S5" s="18">
-        <f t="shared" ref="S5:S29" si="4">IFERROR(Q5/M5, 0)</f>
+        <f t="shared" ref="S5" si="4">IFERROR(Q5/M5, 0)</f>
         <v>0</v>
       </c>
       <c r="T5" s="19"/>
@@ -20604,11 +20573,11 @@
         <v>3</v>
       </c>
       <c r="K6" s="10">
-        <v>43322</v>
+        <v>43329</v>
       </c>
       <c r="L6" s="11">
         <f>IF(AND(J6&lt;&gt;"",K6&lt;&gt;""),WORKDAY(K6,J6-0.5,祝日!$B$1:$B$29),"")</f>
-        <v>43326</v>
+        <v>43333</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="10"/>
@@ -25933,14 +25902,14 @@
       <c r="CC69" s="19"/>
     </row>
     <row r="70" spans="1:81">
-      <c r="A70" s="142"/>
-      <c r="B70" s="143"/>
-      <c r="C70" s="143"/>
-      <c r="D70" s="143"/>
-      <c r="E70" s="143"/>
-      <c r="F70" s="143"/>
-      <c r="G70" s="143"/>
-      <c r="H70" s="144"/>
+      <c r="A70" s="153"/>
+      <c r="B70" s="154"/>
+      <c r="C70" s="154"/>
+      <c r="D70" s="154"/>
+      <c r="E70" s="154"/>
+      <c r="F70" s="154"/>
+      <c r="G70" s="154"/>
+      <c r="H70" s="155"/>
       <c r="J70" s="8"/>
       <c r="K70" s="10"/>
       <c r="L70" s="11" t="str">
@@ -27804,6 +27773,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
     <mergeCell ref="I1:L2"/>
     <mergeCell ref="AY1:CB1"/>
     <mergeCell ref="M1:O2"/>
@@ -27811,874 +27787,867 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="A70:H70"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="T4:CC91">
-    <cfRule type="expression" dxfId="1136" priority="2434">
+    <cfRule type="expression" dxfId="1132" priority="2434">
       <formula>IF(AND($K4&lt;=T$2,T$2&lt;=$L4),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1135" priority="2442">
+    <cfRule type="expression" dxfId="1131" priority="2442">
       <formula>T$2&lt;&gt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72 D74 A85:D86 A5:C5 C76:D77 A71:B74 A83:C84 A88:B91 F85:F91 A76:B81 F71:F81 D7:H8 F14:F23 D14:D30 G48:G55 H48:H63 A23:A43 A48:A55 A66:A69 D48:E55 G66:H69 F44:F63 F65:F69 A64 D66:E69 A6:A13 C6:C69 B6:B43 D6:E6">
-    <cfRule type="expression" dxfId="1134" priority="2435">
+    <cfRule type="expression" dxfId="1130" priority="2435">
       <formula>$O5&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1133" priority="2437">
+    <cfRule type="expression" dxfId="1129" priority="2437">
       <formula>AND($O5="",$L5&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1132" priority="2440">
+    <cfRule type="expression" dxfId="1128" priority="2440">
       <formula>AND($N5="",$K5&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1131" priority="2441">
+    <cfRule type="expression" dxfId="1127" priority="2441">
       <formula>AND($N5&lt;&gt;"",$K5&gt;$N5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="1130" priority="2109">
+    <cfRule type="expression" dxfId="1126" priority="2109">
       <formula>$O4&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1129" priority="2110">
+    <cfRule type="expression" dxfId="1125" priority="2110">
       <formula>AND($O4="",$L4&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1128" priority="2111">
+    <cfRule type="expression" dxfId="1124" priority="2111">
       <formula>AND($N4="",$K4&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1127" priority="2112">
+    <cfRule type="expression" dxfId="1123" priority="2112">
       <formula>AND($N4&lt;&gt;"",$K4&gt;$N4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="1126" priority="1739">
+    <cfRule type="expression" dxfId="1122" priority="1739">
       <formula>$O70&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1125" priority="1740">
+    <cfRule type="expression" dxfId="1121" priority="1740">
       <formula>AND($O70="",$L70&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1124" priority="1741">
+    <cfRule type="expression" dxfId="1120" priority="1741">
       <formula>AND($N70="",$K70&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1123" priority="1742">
+    <cfRule type="expression" dxfId="1119" priority="1742">
       <formula>AND($N70&lt;&gt;"",$K70&gt;$N70)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="expression" dxfId="1122" priority="1683">
+    <cfRule type="expression" dxfId="1118" priority="1683">
       <formula>$O73&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1121" priority="1684">
+    <cfRule type="expression" dxfId="1117" priority="1684">
       <formula>AND($O73="",$L73&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1120" priority="1685">
+    <cfRule type="expression" dxfId="1116" priority="1685">
       <formula>AND($N73="",$K73&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1119" priority="1686">
+    <cfRule type="expression" dxfId="1115" priority="1686">
       <formula>AND($N73&lt;&gt;"",$K73&gt;$N73)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:C74">
-    <cfRule type="expression" dxfId="1118" priority="1584">
+    <cfRule type="expression" dxfId="1114" priority="1584">
       <formula>$O72&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1117" priority="1585">
+    <cfRule type="expression" dxfId="1113" priority="1585">
       <formula>AND($O72="",$L72&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1116" priority="1586">
+    <cfRule type="expression" dxfId="1112" priority="1586">
       <formula>AND($N72="",$K72&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1115" priority="1587">
+    <cfRule type="expression" dxfId="1111" priority="1587">
       <formula>AND($N72&lt;&gt;"",$K72&gt;$N72)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:C74">
-    <cfRule type="expression" dxfId="1114" priority="1580">
+    <cfRule type="expression" dxfId="1110" priority="1580">
       <formula>$O72&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1113" priority="1581">
+    <cfRule type="expression" dxfId="1109" priority="1581">
       <formula>AND($O72="",$L72&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1112" priority="1582">
+    <cfRule type="expression" dxfId="1108" priority="1582">
       <formula>AND($N72="",$K72&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1111" priority="1583">
+    <cfRule type="expression" dxfId="1107" priority="1583">
       <formula>AND($N72&lt;&gt;"",$K72&gt;$N72)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="1110" priority="1491">
+    <cfRule type="expression" dxfId="1106" priority="1491">
       <formula>$O71&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1109" priority="1492">
+    <cfRule type="expression" dxfId="1105" priority="1492">
       <formula>AND($O71="",$L71&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1108" priority="1493">
+    <cfRule type="expression" dxfId="1104" priority="1493">
       <formula>AND($N71="",$K71&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1107" priority="1494">
+    <cfRule type="expression" dxfId="1103" priority="1494">
       <formula>AND($N71&lt;&gt;"",$K71&gt;$N71)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71:H91">
-    <cfRule type="expression" dxfId="1106" priority="1472">
+    <cfRule type="expression" dxfId="1102" priority="1472">
       <formula>$O71&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1105" priority="1473">
+    <cfRule type="expression" dxfId="1101" priority="1473">
       <formula>AND($O71="",$L71&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1104" priority="1474">
+    <cfRule type="expression" dxfId="1100" priority="1474">
       <formula>AND($N71="",$K71&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1103" priority="1475">
+    <cfRule type="expression" dxfId="1099" priority="1475">
       <formula>AND($N71&lt;&gt;"",$K71&gt;$N71)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="1102" priority="1476">
+    <cfRule type="expression" dxfId="1098" priority="1476">
       <formula>$O71&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1101" priority="1477">
+    <cfRule type="expression" dxfId="1097" priority="1477">
       <formula>AND($O71="",$L71&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1100" priority="1478">
+    <cfRule type="expression" dxfId="1096" priority="1478">
       <formula>AND($N71="",$K71&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1099" priority="1479">
+    <cfRule type="expression" dxfId="1095" priority="1479">
       <formula>AND($N71&lt;&gt;"",$K71&gt;$N71)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="1098" priority="1480">
+    <cfRule type="expression" dxfId="1094" priority="1480">
       <formula>$O71&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1097" priority="1481">
+    <cfRule type="expression" dxfId="1093" priority="1481">
       <formula>AND($O71="",$L71&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1096" priority="1482">
+    <cfRule type="expression" dxfId="1092" priority="1482">
       <formula>AND($N71="",$K71&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1095" priority="1483">
+    <cfRule type="expression" dxfId="1091" priority="1483">
       <formula>AND($N71&lt;&gt;"",$K71&gt;$N71)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:B75">
-    <cfRule type="expression" dxfId="1094" priority="1435">
+    <cfRule type="expression" dxfId="1090" priority="1435">
       <formula>$O75&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1093" priority="1436">
+    <cfRule type="expression" dxfId="1089" priority="1436">
       <formula>AND($O75="",$L75&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1092" priority="1437">
+    <cfRule type="expression" dxfId="1088" priority="1437">
       <formula>AND($N75="",$K75&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1091" priority="1438">
+    <cfRule type="expression" dxfId="1087" priority="1438">
       <formula>AND($N75&lt;&gt;"",$K75&gt;$N75)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="expression" dxfId="1090" priority="1429">
+    <cfRule type="expression" dxfId="1086" priority="1429">
       <formula>$O75&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1089" priority="1430">
+    <cfRule type="expression" dxfId="1085" priority="1430">
       <formula>AND($O75="",$L75&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1088" priority="1431">
+    <cfRule type="expression" dxfId="1084" priority="1431">
       <formula>AND($N75="",$K75&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1087" priority="1432">
+    <cfRule type="expression" dxfId="1083" priority="1432">
       <formula>AND($N75&lt;&gt;"",$K75&gt;$N75)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="expression" dxfId="1086" priority="1425">
+    <cfRule type="expression" dxfId="1082" priority="1425">
       <formula>$O75&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1085" priority="1426">
+    <cfRule type="expression" dxfId="1081" priority="1426">
       <formula>AND($O75="",$L75&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1084" priority="1427">
+    <cfRule type="expression" dxfId="1080" priority="1427">
       <formula>AND($N75="",$K75&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1083" priority="1428">
+    <cfRule type="expression" dxfId="1079" priority="1428">
       <formula>AND($N75&lt;&gt;"",$K75&gt;$N75)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="expression" dxfId="1082" priority="1409">
+    <cfRule type="expression" dxfId="1078" priority="1409">
       <formula>$O75&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1081" priority="1410">
+    <cfRule type="expression" dxfId="1077" priority="1410">
       <formula>AND($O75="",$L75&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1080" priority="1411">
+    <cfRule type="expression" dxfId="1076" priority="1411">
       <formula>AND($N75="",$K75&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1079" priority="1412">
+    <cfRule type="expression" dxfId="1075" priority="1412">
       <formula>AND($N75&lt;&gt;"",$K75&gt;$N75)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:D79">
-    <cfRule type="expression" dxfId="1078" priority="1328">
+    <cfRule type="expression" dxfId="1074" priority="1328">
       <formula>$O78&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1077" priority="1329">
+    <cfRule type="expression" dxfId="1073" priority="1329">
       <formula>AND($O78="",$L78&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1076" priority="1330">
+    <cfRule type="expression" dxfId="1072" priority="1330">
       <formula>AND($N78="",$K78&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1075" priority="1331">
+    <cfRule type="expression" dxfId="1071" priority="1331">
       <formula>AND($N78&lt;&gt;"",$K78&gt;$N78)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:C79">
-    <cfRule type="expression" dxfId="1074" priority="1314">
+    <cfRule type="expression" dxfId="1070" priority="1314">
       <formula>$O78&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1073" priority="1315">
+    <cfRule type="expression" dxfId="1069" priority="1315">
       <formula>AND($O78="",$L78&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1072" priority="1316">
+    <cfRule type="expression" dxfId="1068" priority="1316">
       <formula>AND($N78="",$K78&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1071" priority="1317">
+    <cfRule type="expression" dxfId="1067" priority="1317">
       <formula>AND($N78&lt;&gt;"",$K78&gt;$N78)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:C79">
-    <cfRule type="expression" dxfId="1070" priority="1310">
+    <cfRule type="expression" dxfId="1066" priority="1310">
       <formula>$O78&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1069" priority="1311">
+    <cfRule type="expression" dxfId="1065" priority="1311">
       <formula>AND($O78="",$L78&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1068" priority="1312">
+    <cfRule type="expression" dxfId="1064" priority="1312">
       <formula>AND($N78="",$K78&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1067" priority="1313">
+    <cfRule type="expression" dxfId="1063" priority="1313">
       <formula>AND($N78&lt;&gt;"",$K78&gt;$N78)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="expression" dxfId="1066" priority="1305">
+    <cfRule type="expression" dxfId="1062" priority="1305">
       <formula>$O88&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1065" priority="1306">
+    <cfRule type="expression" dxfId="1061" priority="1306">
       <formula>AND($O88="",$L88&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1064" priority="1307">
+    <cfRule type="expression" dxfId="1060" priority="1307">
       <formula>AND($N88="",$K88&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1063" priority="1308">
+    <cfRule type="expression" dxfId="1059" priority="1308">
       <formula>AND($N88&lt;&gt;"",$K88&gt;$N88)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="1062" priority="1291">
+    <cfRule type="expression" dxfId="1058" priority="1291">
       <formula>$O88&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1061" priority="1292">
+    <cfRule type="expression" dxfId="1057" priority="1292">
       <formula>AND($O88="",$L88&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1060" priority="1293">
+    <cfRule type="expression" dxfId="1056" priority="1293">
       <formula>AND($N88="",$K88&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1059" priority="1294">
+    <cfRule type="expression" dxfId="1055" priority="1294">
       <formula>AND($N88&lt;&gt;"",$K88&gt;$N88)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="1058" priority="1287">
+    <cfRule type="expression" dxfId="1054" priority="1287">
       <formula>$O88&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1057" priority="1288">
+    <cfRule type="expression" dxfId="1053" priority="1288">
       <formula>AND($O88="",$L88&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1056" priority="1289">
+    <cfRule type="expression" dxfId="1052" priority="1289">
       <formula>AND($N88="",$K88&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1055" priority="1290">
+    <cfRule type="expression" dxfId="1051" priority="1290">
       <formula>AND($N88&lt;&gt;"",$K88&gt;$N88)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="1054" priority="1282">
+    <cfRule type="expression" dxfId="1050" priority="1282">
       <formula>$O89&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1053" priority="1283">
+    <cfRule type="expression" dxfId="1049" priority="1283">
       <formula>AND($O89="",$L89&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1052" priority="1284">
+    <cfRule type="expression" dxfId="1048" priority="1284">
       <formula>AND($N89="",$K89&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1051" priority="1285">
+    <cfRule type="expression" dxfId="1047" priority="1285">
       <formula>AND($N89&lt;&gt;"",$K89&gt;$N89)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="1050" priority="1268">
+    <cfRule type="expression" dxfId="1046" priority="1268">
       <formula>$O89&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1049" priority="1269">
+    <cfRule type="expression" dxfId="1045" priority="1269">
       <formula>AND($O89="",$L89&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1048" priority="1270">
+    <cfRule type="expression" dxfId="1044" priority="1270">
       <formula>AND($N89="",$K89&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1047" priority="1271">
+    <cfRule type="expression" dxfId="1043" priority="1271">
       <formula>AND($N89&lt;&gt;"",$K89&gt;$N89)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="1046" priority="1264">
+    <cfRule type="expression" dxfId="1042" priority="1264">
       <formula>$O89&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1045" priority="1265">
+    <cfRule type="expression" dxfId="1041" priority="1265">
       <formula>AND($O89="",$L89&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1044" priority="1266">
+    <cfRule type="expression" dxfId="1040" priority="1266">
       <formula>AND($N89="",$K89&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1043" priority="1267">
+    <cfRule type="expression" dxfId="1039" priority="1267">
       <formula>AND($N89&lt;&gt;"",$K89&gt;$N89)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="expression" dxfId="1042" priority="1214">
+    <cfRule type="expression" dxfId="1038" priority="1214">
       <formula>$O90&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1041" priority="1215">
+    <cfRule type="expression" dxfId="1037" priority="1215">
       <formula>AND($O90="",$L90&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1040" priority="1216">
+    <cfRule type="expression" dxfId="1036" priority="1216">
       <formula>AND($N90="",$K90&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1039" priority="1217">
+    <cfRule type="expression" dxfId="1035" priority="1217">
       <formula>AND($N90&lt;&gt;"",$K90&gt;$N90)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="1038" priority="1201">
+    <cfRule type="expression" dxfId="1034" priority="1201">
       <formula>$O90&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1037" priority="1202">
+    <cfRule type="expression" dxfId="1033" priority="1202">
       <formula>AND($O90="",$L90&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1036" priority="1203">
+    <cfRule type="expression" dxfId="1032" priority="1203">
       <formula>AND($N90="",$K90&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1035" priority="1204">
+    <cfRule type="expression" dxfId="1031" priority="1204">
       <formula>AND($N90&lt;&gt;"",$K90&gt;$N90)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="1034" priority="1197">
+    <cfRule type="expression" dxfId="1030" priority="1197">
       <formula>$O90&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1033" priority="1198">
+    <cfRule type="expression" dxfId="1029" priority="1198">
       <formula>AND($O90="",$L90&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1032" priority="1199">
+    <cfRule type="expression" dxfId="1028" priority="1199">
       <formula>AND($N90="",$K90&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1031" priority="1200">
+    <cfRule type="expression" dxfId="1027" priority="1200">
       <formula>AND($N90&lt;&gt;"",$K90&gt;$N90)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="expression" dxfId="1030" priority="1193">
+    <cfRule type="expression" dxfId="1026" priority="1193">
       <formula>$O91&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1029" priority="1194">
+    <cfRule type="expression" dxfId="1025" priority="1194">
       <formula>AND($O91="",$L91&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1028" priority="1195">
+    <cfRule type="expression" dxfId="1024" priority="1195">
       <formula>AND($N91="",$K91&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1027" priority="1196">
+    <cfRule type="expression" dxfId="1023" priority="1196">
       <formula>AND($N91&lt;&gt;"",$K91&gt;$N91)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="1026" priority="1180">
+    <cfRule type="expression" dxfId="1022" priority="1180">
       <formula>$O91&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1025" priority="1181">
+    <cfRule type="expression" dxfId="1021" priority="1181">
       <formula>AND($O91="",$L91&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1024" priority="1182">
+    <cfRule type="expression" dxfId="1020" priority="1182">
       <formula>AND($N91="",$K91&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1023" priority="1183">
+    <cfRule type="expression" dxfId="1019" priority="1183">
       <formula>AND($N91&lt;&gt;"",$K91&gt;$N91)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="1022" priority="1176">
+    <cfRule type="expression" dxfId="1018" priority="1176">
       <formula>$O91&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1021" priority="1177">
+    <cfRule type="expression" dxfId="1017" priority="1177">
       <formula>AND($O91="",$L91&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1020" priority="1178">
+    <cfRule type="expression" dxfId="1016" priority="1178">
       <formula>AND($N91="",$K91&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1019" priority="1179">
+    <cfRule type="expression" dxfId="1015" priority="1179">
       <formula>AND($N91&lt;&gt;"",$K91&gt;$N91)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="expression" dxfId="1018" priority="978">
+    <cfRule type="expression" dxfId="1014" priority="978">
       <formula>$O83&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1017" priority="979">
+    <cfRule type="expression" dxfId="1013" priority="979">
       <formula>AND($O83="",$L83&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1016" priority="980">
+    <cfRule type="expression" dxfId="1012" priority="980">
       <formula>AND($N83="",$K83&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1015" priority="981">
+    <cfRule type="expression" dxfId="1011" priority="981">
       <formula>AND($N83&lt;&gt;"",$K83&gt;$N83)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="expression" dxfId="1014" priority="974">
+    <cfRule type="expression" dxfId="1010" priority="974">
       <formula>$O83&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1013" priority="975">
+    <cfRule type="expression" dxfId="1009" priority="975">
       <formula>AND($O83="",$L83&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1012" priority="976">
+    <cfRule type="expression" dxfId="1008" priority="976">
       <formula>AND($N83="",$K83&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1011" priority="977">
+    <cfRule type="expression" dxfId="1007" priority="977">
       <formula>AND($N83&lt;&gt;"",$K83&gt;$N83)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="expression" dxfId="1010" priority="970">
+    <cfRule type="expression" dxfId="1006" priority="970">
       <formula>$O84&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1009" priority="971">
+    <cfRule type="expression" dxfId="1005" priority="971">
       <formula>AND($O84="",$L84&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1008" priority="972">
+    <cfRule type="expression" dxfId="1004" priority="972">
       <formula>AND($N84="",$K84&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1007" priority="973">
+    <cfRule type="expression" dxfId="1003" priority="973">
       <formula>AND($N84&lt;&gt;"",$K84&gt;$N84)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84">
-    <cfRule type="expression" dxfId="1006" priority="966">
+    <cfRule type="expression" dxfId="1002" priority="966">
       <formula>$O84&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1005" priority="967">
+    <cfRule type="expression" dxfId="1001" priority="967">
       <formula>AND($O84="",$L84&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1004" priority="968">
+    <cfRule type="expression" dxfId="1000" priority="968">
       <formula>AND($N84="",$K84&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1003" priority="969">
+    <cfRule type="expression" dxfId="999" priority="969">
       <formula>AND($N84&lt;&gt;"",$K84&gt;$N84)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:D87">
-    <cfRule type="expression" dxfId="1002" priority="957">
+    <cfRule type="expression" dxfId="998" priority="957">
       <formula>$O87&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1001" priority="958">
+    <cfRule type="expression" dxfId="997" priority="958">
       <formula>AND($O87="",$L87&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1000" priority="959">
+    <cfRule type="expression" dxfId="996" priority="959">
       <formula>AND($N87="",$K87&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="999" priority="960">
+    <cfRule type="expression" dxfId="995" priority="960">
       <formula>AND($N87&lt;&gt;"",$K87&gt;$N87)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80">
-    <cfRule type="expression" dxfId="998" priority="950">
+    <cfRule type="expression" dxfId="994" priority="950">
       <formula>$O80&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="997" priority="951">
+    <cfRule type="expression" dxfId="993" priority="951">
       <formula>AND($O80="",$L80&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="996" priority="952">
+    <cfRule type="expression" dxfId="992" priority="952">
       <formula>AND($N80="",$K80&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="995" priority="953">
+    <cfRule type="expression" dxfId="991" priority="953">
       <formula>AND($N80&lt;&gt;"",$K80&gt;$N80)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="994" priority="936">
+    <cfRule type="expression" dxfId="990" priority="936">
       <formula>$O80&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="993" priority="937">
+    <cfRule type="expression" dxfId="989" priority="937">
       <formula>AND($O80="",$L80&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="992" priority="938">
+    <cfRule type="expression" dxfId="988" priority="938">
       <formula>AND($N80="",$K80&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="991" priority="939">
+    <cfRule type="expression" dxfId="987" priority="939">
       <formula>AND($N80&lt;&gt;"",$K80&gt;$N80)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="990" priority="932">
+    <cfRule type="expression" dxfId="986" priority="932">
       <formula>$O80&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="989" priority="933">
+    <cfRule type="expression" dxfId="985" priority="933">
       <formula>AND($O80="",$L80&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="988" priority="934">
+    <cfRule type="expression" dxfId="984" priority="934">
       <formula>AND($N80="",$K80&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="987" priority="935">
+    <cfRule type="expression" dxfId="983" priority="935">
       <formula>AND($N80&lt;&gt;"",$K80&gt;$N80)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="expression" dxfId="986" priority="927">
+    <cfRule type="expression" dxfId="982" priority="927">
       <formula>$O81&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="985" priority="928">
+    <cfRule type="expression" dxfId="981" priority="928">
       <formula>AND($O81="",$L81&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="984" priority="929">
+    <cfRule type="expression" dxfId="980" priority="929">
       <formula>AND($N81="",$K81&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="983" priority="930">
+    <cfRule type="expression" dxfId="979" priority="930">
       <formula>AND($N81&lt;&gt;"",$K81&gt;$N81)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="982" priority="913">
+    <cfRule type="expression" dxfId="978" priority="913">
       <formula>$O81&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="981" priority="914">
+    <cfRule type="expression" dxfId="977" priority="914">
       <formula>AND($O81="",$L81&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="980" priority="915">
+    <cfRule type="expression" dxfId="976" priority="915">
       <formula>AND($N81="",$K81&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="979" priority="916">
+    <cfRule type="expression" dxfId="975" priority="916">
       <formula>AND($N81&lt;&gt;"",$K81&gt;$N81)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="978" priority="909">
+    <cfRule type="expression" dxfId="974" priority="909">
       <formula>$O81&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="977" priority="910">
+    <cfRule type="expression" dxfId="973" priority="910">
       <formula>AND($O81="",$L81&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="976" priority="911">
+    <cfRule type="expression" dxfId="972" priority="911">
       <formula>AND($N81="",$K81&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="975" priority="912">
+    <cfRule type="expression" dxfId="971" priority="912">
       <formula>AND($N81&lt;&gt;"",$K81&gt;$N81)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B82">
-    <cfRule type="expression" dxfId="974" priority="904">
+    <cfRule type="expression" dxfId="970" priority="904">
       <formula>$O82&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="973" priority="905">
+    <cfRule type="expression" dxfId="969" priority="905">
       <formula>AND($O82="",$L82&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="972" priority="906">
+    <cfRule type="expression" dxfId="968" priority="906">
       <formula>AND($N82="",$K82&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="971" priority="907">
+    <cfRule type="expression" dxfId="967" priority="907">
       <formula>AND($N82&lt;&gt;"",$K82&gt;$N82)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="970" priority="890">
+    <cfRule type="expression" dxfId="966" priority="890">
       <formula>$O82&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="969" priority="891">
+    <cfRule type="expression" dxfId="965" priority="891">
       <formula>AND($O82="",$L82&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="968" priority="892">
+    <cfRule type="expression" dxfId="964" priority="892">
       <formula>AND($N82="",$K82&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="967" priority="893">
+    <cfRule type="expression" dxfId="963" priority="893">
       <formula>AND($N82&lt;&gt;"",$K82&gt;$N82)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="966" priority="886">
+    <cfRule type="expression" dxfId="962" priority="886">
       <formula>$O82&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="965" priority="887">
+    <cfRule type="expression" dxfId="961" priority="887">
       <formula>AND($O82="",$L82&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="964" priority="888">
+    <cfRule type="expression" dxfId="960" priority="888">
       <formula>AND($N82="",$K82&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="963" priority="889">
+    <cfRule type="expression" dxfId="959" priority="889">
       <formula>AND($N82&lt;&gt;"",$K82&gt;$N82)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="expression" dxfId="962" priority="882">
+    <cfRule type="expression" dxfId="958" priority="882">
       <formula>$O82&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="961" priority="883">
+    <cfRule type="expression" dxfId="957" priority="883">
       <formula>AND($O82="",$L82&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="960" priority="884">
+    <cfRule type="expression" dxfId="956" priority="884">
       <formula>AND($N82="",$K82&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="959" priority="885">
+    <cfRule type="expression" dxfId="955" priority="885">
       <formula>AND($N82&lt;&gt;"",$K82&gt;$N82)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="expression" dxfId="958" priority="878">
+    <cfRule type="expression" dxfId="954" priority="878">
       <formula>$O82&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="957" priority="879">
+    <cfRule type="expression" dxfId="953" priority="879">
       <formula>AND($O82="",$L82&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="956" priority="880">
+    <cfRule type="expression" dxfId="952" priority="880">
       <formula>AND($N82="",$K82&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="955" priority="881">
+    <cfRule type="expression" dxfId="951" priority="881">
       <formula>AND($N82&lt;&gt;"",$K82&gt;$N82)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F30">
-    <cfRule type="expression" dxfId="954" priority="652">
+    <cfRule type="expression" dxfId="950" priority="652">
       <formula>$O24&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="953" priority="653">
+    <cfRule type="expression" dxfId="949" priority="653">
       <formula>AND($O24="",$L24&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="952" priority="654">
+    <cfRule type="expression" dxfId="948" priority="654">
       <formula>AND($N24="",$K24&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="951" priority="655">
+    <cfRule type="expression" dxfId="947" priority="655">
       <formula>AND($N24&lt;&gt;"",$K24&gt;$N24)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F30">
-    <cfRule type="expression" dxfId="950" priority="647">
+    <cfRule type="expression" dxfId="946" priority="647">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="949" priority="648">
+    <cfRule type="expression" dxfId="945" priority="648">
       <formula>AND(#REF!="",#REF!&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="948" priority="649">
+    <cfRule type="expression" dxfId="944" priority="649">
       <formula>AND(#REF!="",#REF!&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="947" priority="650">
+    <cfRule type="expression" dxfId="943" priority="650">
       <formula>AND(#REF!&lt;&gt;"",#REF!&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:H5 F6:H6">
-    <cfRule type="expression" dxfId="946" priority="599">
+    <cfRule type="expression" dxfId="942" priority="599">
       <formula>$O5&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="945" priority="600">
+    <cfRule type="expression" dxfId="941" priority="600">
       <formula>AND($O5="",$L5&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="944" priority="601">
+    <cfRule type="expression" dxfId="940" priority="601">
       <formula>AND($N5="",$K5&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="943" priority="602">
+    <cfRule type="expression" dxfId="939" priority="602">
       <formula>AND($N5&lt;&gt;"",$K5&gt;$N5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:H10">
-    <cfRule type="expression" dxfId="942" priority="569">
+    <cfRule type="expression" dxfId="938" priority="569">
       <formula>$O9&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="941" priority="570">
+    <cfRule type="expression" dxfId="937" priority="570">
       <formula>AND($O9="",$L9&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="940" priority="571">
+    <cfRule type="expression" dxfId="936" priority="571">
       <formula>AND($N9="",$K9&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="939" priority="572">
+    <cfRule type="expression" dxfId="935" priority="572">
       <formula>AND($N9&lt;&gt;"",$K9&gt;$N9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:H13">
-    <cfRule type="expression" dxfId="938" priority="565">
+    <cfRule type="expression" dxfId="934" priority="565">
       <formula>$O11&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="937" priority="566">
+    <cfRule type="expression" dxfId="933" priority="566">
       <formula>AND($O11="",$L11&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="936" priority="567">
+    <cfRule type="expression" dxfId="932" priority="567">
       <formula>AND($N11="",$K11&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="935" priority="568">
+    <cfRule type="expression" dxfId="931" priority="568">
       <formula>AND($N11&lt;&gt;"",$K11&gt;$N11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30">
-    <cfRule type="expression" dxfId="934" priority="561">
+    <cfRule type="expression" dxfId="930" priority="561">
       <formula>$O23&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="933" priority="562">
+    <cfRule type="expression" dxfId="929" priority="562">
       <formula>AND($O23="",$L23&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="932" priority="563">
+    <cfRule type="expression" dxfId="928" priority="563">
       <formula>AND($N23="",$K23&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="931" priority="564">
+    <cfRule type="expression" dxfId="927" priority="564">
       <formula>AND($N23&lt;&gt;"",$K23&gt;$N23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G30">
-    <cfRule type="expression" dxfId="930" priority="557">
+    <cfRule type="expression" dxfId="926" priority="557">
       <formula>$O23&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="929" priority="558">
+    <cfRule type="expression" dxfId="925" priority="558">
       <formula>AND($O23="",$L23&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="928" priority="559">
+    <cfRule type="expression" dxfId="924" priority="559">
       <formula>AND($N23="",$K23&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="927" priority="560">
+    <cfRule type="expression" dxfId="923" priority="560">
       <formula>AND($N23&lt;&gt;"",$K23&gt;$N23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="926" priority="492">
+    <cfRule type="expression" dxfId="922" priority="492">
       <formula>$O22&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="925" priority="493">
+    <cfRule type="expression" dxfId="921" priority="493">
       <formula>AND($O22="",$L22&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="924" priority="494">
+    <cfRule type="expression" dxfId="920" priority="494">
       <formula>AND($N22="",$K22&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="923" priority="495">
+    <cfRule type="expression" dxfId="919" priority="495">
       <formula>AND($N22&lt;&gt;"",$K22&gt;$N22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H30">
-    <cfRule type="expression" dxfId="922" priority="549">
+    <cfRule type="expression" dxfId="918" priority="549">
       <formula>$O23&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="921" priority="550">
+    <cfRule type="expression" dxfId="917" priority="550">
       <formula>AND($O23="",$L23&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="920" priority="551">
+    <cfRule type="expression" dxfId="916" priority="551">
       <formula>AND($N23="",$K23&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="919" priority="552">
+    <cfRule type="expression" dxfId="915" priority="552">
       <formula>AND($N23&lt;&gt;"",$K23&gt;$N23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:E91">
-    <cfRule type="expression" dxfId="918" priority="545">
+    <cfRule type="expression" dxfId="914" priority="545">
       <formula>$O71&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="917" priority="546">
+    <cfRule type="expression" dxfId="913" priority="546">
       <formula>AND($O71="",$L71&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="916" priority="547">
+    <cfRule type="expression" dxfId="912" priority="547">
       <formula>AND($N71="",$K71&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="915" priority="548">
+    <cfRule type="expression" dxfId="911" priority="548">
       <formula>AND($N71&lt;&gt;"",$K71&gt;$N71)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:G91">
-    <cfRule type="expression" dxfId="914" priority="537">
+    <cfRule type="expression" dxfId="910" priority="537">
       <formula>$O71&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="913" priority="538">
+    <cfRule type="expression" dxfId="909" priority="538">
       <formula>AND($O71="",$L71&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="912" priority="539">
+    <cfRule type="expression" dxfId="908" priority="539">
       <formula>AND($N71="",$K71&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="911" priority="540">
+    <cfRule type="expression" dxfId="907" priority="540">
       <formula>AND($N71&lt;&gt;"",$K71&gt;$N71)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A22">
-    <cfRule type="expression" dxfId="910" priority="527">
+    <cfRule type="expression" dxfId="906" priority="527">
       <formula>$O14&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="909" priority="528">
+    <cfRule type="expression" dxfId="905" priority="528">
       <formula>AND($O14="",$L14&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="908" priority="529">
+    <cfRule type="expression" dxfId="904" priority="529">
       <formula>AND($N14="",$K14&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="907" priority="530">
+    <cfRule type="expression" dxfId="903" priority="530">
       <formula>AND($N14&lt;&gt;"",$K14&gt;$N14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F23 D14:D30">
-    <cfRule type="expression" dxfId="906" priority="522">
+    <cfRule type="expression" dxfId="902" priority="522">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="905" priority="523">
+    <cfRule type="expression" dxfId="901" priority="523">
       <formula>AND(#REF!="",#REF!&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="904" priority="524">
+    <cfRule type="expression" dxfId="900" priority="524">
       <formula>AND(#REF!="",#REF!&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="903" priority="525">
+    <cfRule type="expression" dxfId="899" priority="525">
       <formula>AND(#REF!&lt;&gt;"",#REF!&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E22">
-    <cfRule type="expression" dxfId="902" priority="500">
+    <cfRule type="expression" dxfId="898" priority="500">
       <formula>$O14&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="901" priority="501">
+    <cfRule type="expression" dxfId="897" priority="501">
       <formula>AND($O14="",$L14&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="900" priority="502">
+    <cfRule type="expression" dxfId="896" priority="502">
       <formula>AND($N14="",$K14&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="899" priority="503">
+    <cfRule type="expression" dxfId="895" priority="503">
       <formula>AND($N14&lt;&gt;"",$K14&gt;$N14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G21">
-    <cfRule type="expression" dxfId="898" priority="496">
+    <cfRule type="expression" dxfId="894" priority="496">
       <formula>$O14&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="897" priority="497">
+    <cfRule type="expression" dxfId="893" priority="497">
       <formula>AND($O14="",$L14&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="896" priority="498">
+    <cfRule type="expression" dxfId="892" priority="498">
       <formula>AND($N14="",$K14&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="895" priority="499">
+    <cfRule type="expression" dxfId="891" priority="499">
       <formula>AND($N14&lt;&gt;"",$K14&gt;$N14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H22">
-    <cfRule type="expression" dxfId="894" priority="488">
+    <cfRule type="expression" dxfId="890" priority="488">
       <formula>$O14&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="893" priority="489">
+    <cfRule type="expression" dxfId="889" priority="489">
       <formula>AND($O14="",$L14&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="490">
+    <cfRule type="expression" dxfId="888" priority="490">
       <formula>AND($N14="",$K14&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="891" priority="491">
+    <cfRule type="expression" dxfId="887" priority="491">
       <formula>AND($N14&lt;&gt;"",$K14&gt;$N14)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29234,7 +29203,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1322" id="{4C0F3A5A-5BE0-404E-9963-248CE0A44FD3}">
-            <xm:f>IF(OR(T$3="土",T$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,T$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(T$3="土",T$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,T$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -29286,7 +29255,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="11" id="{3DF4E153-40D0-46EA-8111-4D7F3C1CA905}">
-            <xm:f>IF(OR(BW$3="土",BW$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,BW$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BW$3="土",BW$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,BW$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -29338,7 +29307,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{2C89057A-10AD-49B5-81DD-9854BA7492C5}">
-            <xm:f>IF(OR(CC$3="土",CC$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,CC$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(CC$3="土",CC$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,CC$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -29885,241 +29854,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:230" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="156" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="157" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="164" t="s">
+      <c r="E1" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="164" t="s">
+      <c r="F1" s="157" t="s">
         <v>239</v>
       </c>
-      <c r="G1" s="145" t="s">
+      <c r="G1" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="136" t="s">
+      <c r="H1" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="147" t="s">
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="147" t="s">
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="145" t="s">
+      <c r="P1" s="136"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="159" t="s">
+      <c r="S1" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="160"/>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="160"/>
-      <c r="AJ1" s="160"/>
-      <c r="AK1" s="160"/>
-      <c r="AL1" s="160"/>
-      <c r="AM1" s="160"/>
-      <c r="AN1" s="160"/>
-      <c r="AO1" s="160"/>
-      <c r="AP1" s="160"/>
-      <c r="AQ1" s="160"/>
-      <c r="AR1" s="160"/>
-      <c r="AS1" s="160"/>
-      <c r="AT1" s="160"/>
-      <c r="AU1" s="160"/>
-      <c r="AV1" s="160"/>
-      <c r="AW1" s="160"/>
-      <c r="AX1" s="159" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="163"/>
+      <c r="AJ1" s="163"/>
+      <c r="AK1" s="163"/>
+      <c r="AL1" s="163"/>
+      <c r="AM1" s="163"/>
+      <c r="AN1" s="163"/>
+      <c r="AO1" s="163"/>
+      <c r="AP1" s="163"/>
+      <c r="AQ1" s="163"/>
+      <c r="AR1" s="163"/>
+      <c r="AS1" s="163"/>
+      <c r="AT1" s="163"/>
+      <c r="AU1" s="163"/>
+      <c r="AV1" s="163"/>
+      <c r="AW1" s="163"/>
+      <c r="AX1" s="166" t="s">
         <v>237</v>
       </c>
-      <c r="AY1" s="160"/>
-      <c r="AZ1" s="160"/>
-      <c r="BA1" s="160"/>
-      <c r="BB1" s="160"/>
-      <c r="BC1" s="160"/>
-      <c r="BD1" s="160"/>
-      <c r="BE1" s="160"/>
-      <c r="BF1" s="160"/>
-      <c r="BG1" s="160"/>
-      <c r="BH1" s="160"/>
-      <c r="BI1" s="160"/>
-      <c r="BJ1" s="160"/>
-      <c r="BK1" s="160"/>
-      <c r="BL1" s="160"/>
-      <c r="BM1" s="160"/>
-      <c r="BN1" s="160"/>
-      <c r="BO1" s="160"/>
-      <c r="BP1" s="160"/>
-      <c r="BQ1" s="160"/>
-      <c r="BR1" s="160"/>
-      <c r="BS1" s="160"/>
-      <c r="BT1" s="160"/>
-      <c r="BU1" s="160"/>
-      <c r="BV1" s="160"/>
-      <c r="BW1" s="160"/>
-      <c r="BX1" s="160"/>
-      <c r="BY1" s="160"/>
-      <c r="BZ1" s="160"/>
-      <c r="CA1" s="160"/>
-      <c r="CB1" s="160"/>
-      <c r="CC1" s="159" t="s">
+      <c r="AY1" s="163"/>
+      <c r="AZ1" s="163"/>
+      <c r="BA1" s="163"/>
+      <c r="BB1" s="163"/>
+      <c r="BC1" s="163"/>
+      <c r="BD1" s="163"/>
+      <c r="BE1" s="163"/>
+      <c r="BF1" s="163"/>
+      <c r="BG1" s="163"/>
+      <c r="BH1" s="163"/>
+      <c r="BI1" s="163"/>
+      <c r="BJ1" s="163"/>
+      <c r="BK1" s="163"/>
+      <c r="BL1" s="163"/>
+      <c r="BM1" s="163"/>
+      <c r="BN1" s="163"/>
+      <c r="BO1" s="163"/>
+      <c r="BP1" s="163"/>
+      <c r="BQ1" s="163"/>
+      <c r="BR1" s="163"/>
+      <c r="BS1" s="163"/>
+      <c r="BT1" s="163"/>
+      <c r="BU1" s="163"/>
+      <c r="BV1" s="163"/>
+      <c r="BW1" s="163"/>
+      <c r="BX1" s="163"/>
+      <c r="BY1" s="163"/>
+      <c r="BZ1" s="163"/>
+      <c r="CA1" s="163"/>
+      <c r="CB1" s="163"/>
+      <c r="CC1" s="166" t="s">
         <v>240</v>
       </c>
-      <c r="CD1" s="160"/>
-      <c r="CE1" s="160"/>
-      <c r="CF1" s="160"/>
-      <c r="CG1" s="160"/>
-      <c r="CH1" s="160"/>
-      <c r="CI1" s="160"/>
-      <c r="CJ1" s="160"/>
-      <c r="CK1" s="160"/>
-      <c r="CL1" s="160"/>
-      <c r="CM1" s="160"/>
-      <c r="CN1" s="160"/>
-      <c r="CO1" s="160"/>
-      <c r="CP1" s="160"/>
-      <c r="CQ1" s="160"/>
-      <c r="CR1" s="160"/>
-      <c r="CS1" s="160"/>
-      <c r="CT1" s="160"/>
-      <c r="CU1" s="160"/>
-      <c r="CV1" s="160"/>
-      <c r="CW1" s="160"/>
-      <c r="CX1" s="160"/>
-      <c r="CY1" s="160"/>
-      <c r="CZ1" s="160"/>
-      <c r="DA1" s="160"/>
-      <c r="DB1" s="160"/>
-      <c r="DC1" s="160"/>
-      <c r="DD1" s="160"/>
-      <c r="DE1" s="160"/>
-      <c r="DF1" s="160"/>
-      <c r="DG1" s="161" t="s">
+      <c r="CD1" s="163"/>
+      <c r="CE1" s="163"/>
+      <c r="CF1" s="163"/>
+      <c r="CG1" s="163"/>
+      <c r="CH1" s="163"/>
+      <c r="CI1" s="163"/>
+      <c r="CJ1" s="163"/>
+      <c r="CK1" s="163"/>
+      <c r="CL1" s="163"/>
+      <c r="CM1" s="163"/>
+      <c r="CN1" s="163"/>
+      <c r="CO1" s="163"/>
+      <c r="CP1" s="163"/>
+      <c r="CQ1" s="163"/>
+      <c r="CR1" s="163"/>
+      <c r="CS1" s="163"/>
+      <c r="CT1" s="163"/>
+      <c r="CU1" s="163"/>
+      <c r="CV1" s="163"/>
+      <c r="CW1" s="163"/>
+      <c r="CX1" s="163"/>
+      <c r="CY1" s="163"/>
+      <c r="CZ1" s="163"/>
+      <c r="DA1" s="163"/>
+      <c r="DB1" s="163"/>
+      <c r="DC1" s="163"/>
+      <c r="DD1" s="163"/>
+      <c r="DE1" s="163"/>
+      <c r="DF1" s="163"/>
+      <c r="DG1" s="160" t="s">
         <v>241</v>
       </c>
-      <c r="DH1" s="162"/>
-      <c r="DI1" s="162"/>
-      <c r="DJ1" s="162"/>
-      <c r="DK1" s="162"/>
-      <c r="DL1" s="162"/>
-      <c r="DM1" s="162"/>
-      <c r="DN1" s="162"/>
-      <c r="DO1" s="162"/>
-      <c r="DP1" s="162"/>
-      <c r="DQ1" s="162"/>
-      <c r="DR1" s="162"/>
-      <c r="DS1" s="162"/>
-      <c r="DT1" s="162"/>
-      <c r="DU1" s="162"/>
-      <c r="DV1" s="162"/>
-      <c r="DW1" s="162"/>
-      <c r="DX1" s="162"/>
-      <c r="DY1" s="162"/>
-      <c r="DZ1" s="162"/>
-      <c r="EA1" s="162"/>
-      <c r="EB1" s="162"/>
-      <c r="EC1" s="162"/>
-      <c r="ED1" s="162"/>
-      <c r="EE1" s="162"/>
-      <c r="EF1" s="162"/>
-      <c r="EG1" s="162"/>
-      <c r="EH1" s="162"/>
-      <c r="EI1" s="162"/>
-      <c r="EJ1" s="162"/>
-      <c r="EK1" s="162"/>
-      <c r="EL1" s="161" t="s">
+      <c r="DH1" s="161"/>
+      <c r="DI1" s="161"/>
+      <c r="DJ1" s="161"/>
+      <c r="DK1" s="161"/>
+      <c r="DL1" s="161"/>
+      <c r="DM1" s="161"/>
+      <c r="DN1" s="161"/>
+      <c r="DO1" s="161"/>
+      <c r="DP1" s="161"/>
+      <c r="DQ1" s="161"/>
+      <c r="DR1" s="161"/>
+      <c r="DS1" s="161"/>
+      <c r="DT1" s="161"/>
+      <c r="DU1" s="161"/>
+      <c r="DV1" s="161"/>
+      <c r="DW1" s="161"/>
+      <c r="DX1" s="161"/>
+      <c r="DY1" s="161"/>
+      <c r="DZ1" s="161"/>
+      <c r="EA1" s="161"/>
+      <c r="EB1" s="161"/>
+      <c r="EC1" s="161"/>
+      <c r="ED1" s="161"/>
+      <c r="EE1" s="161"/>
+      <c r="EF1" s="161"/>
+      <c r="EG1" s="161"/>
+      <c r="EH1" s="161"/>
+      <c r="EI1" s="161"/>
+      <c r="EJ1" s="161"/>
+      <c r="EK1" s="161"/>
+      <c r="EL1" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="EM1" s="162"/>
-      <c r="EN1" s="162"/>
-      <c r="EO1" s="162"/>
-      <c r="EP1" s="162"/>
-      <c r="EQ1" s="162"/>
-      <c r="ER1" s="162"/>
-      <c r="ES1" s="162"/>
-      <c r="ET1" s="162"/>
-      <c r="EU1" s="162"/>
-      <c r="EV1" s="162"/>
-      <c r="EW1" s="162"/>
-      <c r="EX1" s="162"/>
-      <c r="EY1" s="162"/>
-      <c r="EZ1" s="162"/>
-      <c r="FA1" s="162"/>
-      <c r="FB1" s="162"/>
-      <c r="FC1" s="162"/>
-      <c r="FD1" s="162"/>
-      <c r="FE1" s="162"/>
-      <c r="FF1" s="162"/>
-      <c r="FG1" s="162"/>
-      <c r="FH1" s="162"/>
-      <c r="FI1" s="162"/>
-      <c r="FJ1" s="162"/>
-      <c r="FK1" s="162"/>
-      <c r="FL1" s="162"/>
-      <c r="FM1" s="162"/>
-      <c r="FN1" s="162"/>
-      <c r="FO1" s="163"/>
-      <c r="FP1" s="160" t="s">
+      <c r="EM1" s="161"/>
+      <c r="EN1" s="161"/>
+      <c r="EO1" s="161"/>
+      <c r="EP1" s="161"/>
+      <c r="EQ1" s="161"/>
+      <c r="ER1" s="161"/>
+      <c r="ES1" s="161"/>
+      <c r="ET1" s="161"/>
+      <c r="EU1" s="161"/>
+      <c r="EV1" s="161"/>
+      <c r="EW1" s="161"/>
+      <c r="EX1" s="161"/>
+      <c r="EY1" s="161"/>
+      <c r="EZ1" s="161"/>
+      <c r="FA1" s="161"/>
+      <c r="FB1" s="161"/>
+      <c r="FC1" s="161"/>
+      <c r="FD1" s="161"/>
+      <c r="FE1" s="161"/>
+      <c r="FF1" s="161"/>
+      <c r="FG1" s="161"/>
+      <c r="FH1" s="161"/>
+      <c r="FI1" s="161"/>
+      <c r="FJ1" s="161"/>
+      <c r="FK1" s="161"/>
+      <c r="FL1" s="161"/>
+      <c r="FM1" s="161"/>
+      <c r="FN1" s="161"/>
+      <c r="FO1" s="162"/>
+      <c r="FP1" s="163" t="s">
         <v>243</v>
       </c>
-      <c r="FQ1" s="160"/>
-      <c r="FR1" s="160"/>
-      <c r="FS1" s="160"/>
-      <c r="FT1" s="160"/>
-      <c r="FU1" s="160"/>
-      <c r="FV1" s="160"/>
-      <c r="FW1" s="160"/>
-      <c r="FX1" s="160"/>
-      <c r="FY1" s="160"/>
-      <c r="FZ1" s="160"/>
-      <c r="GA1" s="160"/>
-      <c r="GB1" s="160"/>
-      <c r="GC1" s="160"/>
-      <c r="GD1" s="160"/>
-      <c r="GE1" s="160"/>
-      <c r="GF1" s="160"/>
-      <c r="GG1" s="160"/>
-      <c r="GH1" s="160"/>
-      <c r="GI1" s="160"/>
-      <c r="GJ1" s="160"/>
-      <c r="GK1" s="160"/>
-      <c r="GL1" s="160"/>
-      <c r="GM1" s="160"/>
-      <c r="GN1" s="160"/>
-      <c r="GO1" s="160"/>
-      <c r="GP1" s="160"/>
-      <c r="GQ1" s="160"/>
-      <c r="GR1" s="160"/>
-      <c r="GS1" s="160"/>
+      <c r="FQ1" s="163"/>
+      <c r="FR1" s="163"/>
+      <c r="FS1" s="163"/>
+      <c r="FT1" s="163"/>
+      <c r="FU1" s="163"/>
+      <c r="FV1" s="163"/>
+      <c r="FW1" s="163"/>
+      <c r="FX1" s="163"/>
+      <c r="FY1" s="163"/>
+      <c r="FZ1" s="163"/>
+      <c r="GA1" s="163"/>
+      <c r="GB1" s="163"/>
+      <c r="GC1" s="163"/>
+      <c r="GD1" s="163"/>
+      <c r="GE1" s="163"/>
+      <c r="GF1" s="163"/>
+      <c r="GG1" s="163"/>
+      <c r="GH1" s="163"/>
+      <c r="GI1" s="163"/>
+      <c r="GJ1" s="163"/>
+      <c r="GK1" s="163"/>
+      <c r="GL1" s="163"/>
+      <c r="GM1" s="163"/>
+      <c r="GN1" s="163"/>
+      <c r="GO1" s="163"/>
+      <c r="GP1" s="163"/>
+      <c r="GQ1" s="163"/>
+      <c r="GR1" s="163"/>
+      <c r="GS1" s="163"/>
       <c r="GT1" s="91"/>
       <c r="GU1" s="91"/>
       <c r="GV1" s="91"/>
@@ -30151,24 +30120,24 @@
       <c r="HV1" s="91"/>
     </row>
     <row r="2" spans="1:230" s="7" customFormat="1" ht="15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="145"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="144"/>
       <c r="S2" s="16">
         <v>42917</v>
       </c>
@@ -30720,13 +30689,13 @@
       </c>
     </row>
     <row r="3" spans="1:230" s="7" customFormat="1" ht="30">
-      <c r="A3" s="146"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="145"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="144"/>
       <c r="H3" s="90" t="s">
         <v>56</v>
       </c>
@@ -30757,7 +30726,7 @@
       <c r="Q3" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="R3" s="145"/>
+      <c r="R3" s="144"/>
       <c r="S3" s="17" t="str">
         <f>TEXT(S$2,"aaa")</f>
         <v>土</v>
@@ -31498,15 +31467,15 @@
       <c r="D4" s="89">
         <v>1</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="164" t="s">
         <v>254</v>
       </c>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="165"/>
       <c r="L4" s="8"/>
       <c r="M4" s="10"/>
       <c r="N4" s="11" t="str">
@@ -39016,15 +38985,15 @@
       <c r="B39" s="37"/>
       <c r="C39" s="5"/>
       <c r="D39" s="95"/>
-      <c r="E39" s="157" t="s">
+      <c r="E39" s="164" t="s">
         <v>287</v>
       </c>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="158"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="164"/>
+      <c r="K39" s="165"/>
       <c r="L39" s="8"/>
       <c r="M39" s="10"/>
       <c r="N39" s="11" t="str">
@@ -44054,15 +44023,15 @@
       <c r="B61" s="37"/>
       <c r="C61" s="5"/>
       <c r="D61" s="95"/>
-      <c r="E61" s="157" t="s">
+      <c r="E61" s="164" t="s">
         <v>315</v>
       </c>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
-      <c r="K61" s="158"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="164"/>
+      <c r="H61" s="164"/>
+      <c r="I61" s="164"/>
+      <c r="J61" s="164"/>
+      <c r="K61" s="165"/>
       <c r="L61" s="8"/>
       <c r="M61" s="10"/>
       <c r="N61" s="11" t="str">
@@ -55218,11 +55187,11 @@
   </sheetData>
   <autoFilter ref="A1:K3" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="20">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="E39:K39"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="AX1:CB1"/>
+    <mergeCell ref="CC1:DF1"/>
+    <mergeCell ref="DG1:EK1"/>
     <mergeCell ref="EL1:FO1"/>
     <mergeCell ref="FP1:GS1"/>
     <mergeCell ref="E4:K4"/>
@@ -55233,11 +55202,11 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:AW1"/>
     <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E39:K39"/>
-    <mergeCell ref="E61:K61"/>
-    <mergeCell ref="AX1:CB1"/>
-    <mergeCell ref="CC1:DF1"/>
-    <mergeCell ref="DG1:EK1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="S4:AU4 AW4:BO4 BR4:BV4 S6:BO6 BR6:BV6 BY6:CC6 CF6:CJ6 CM6:CQ6 CT6:CX6 DA6:DE6 DH6:DL6 DO6:DS6 DV6:DZ6 EC6:EG6 EJ6:EN6 EQ6:EU6 EX6:FB6 FE6:FI6 FL6:FP6 FS6:FW6 FZ6:GD6 GG6:GK6 GN6:GR6 GN9:GR12 GG9:GK12 FZ9:GD12 FS9:FW12 FL9:FP12 FE9:FI12 EX9:FB12 EQ9:EU12 EJ9:EN12 EC9:EG12 DV9:DZ12 DO9:DS12 DH9:DL12 DA9:DE12 CT9:CX12 CM9:CQ12 CF9:CJ12 BY9:CC12 BR9:BV12 S9:BO12 S14:BO17 BR14:BV17 BY14:CC17 CF14:CJ17 CM14:CQ17 CT14:CX17 DA14:DE17 DH14:DL17 DO14:DS17 DV14:DZ17 EC14:EG17 EJ14:EN17 EQ14:EU17 EX14:FB17 FE14:FI17 FL14:FP17 FS14:FW17 FZ14:GD17 GG14:GK17 GN14:GR17 GN19:GR32 GG19:GK32 FZ19:GD32 FS19:FW32 FL19:FP32 FE19:FI32 EX19:FB32 EQ19:EU32 EJ19:EN32 EC19:EG32 DV19:DZ32 DO19:DS32 DH19:DL32 DA19:DE32 CT19:CX32 CM19:CQ32 CF19:CJ32 BY19:CC32 BR19:BV32 S19:BO32 GN34:GR110 GG34:GK110 FZ34:GD110 FS34:FW110 FL34:FP110 FE34:FI110 EX34:FB110 EQ34:EU110 EJ34:EN110 EC34:EG110 DV34:DZ110 DO34:DS110 DH34:DL110 DA34:DE110 CT34:CX110 CM34:CQ110 CF34:CJ110 BY34:CC110 BR34:BV110 S34:BO110">
@@ -57038,7 +57007,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1564" id="{2E7D5265-F967-44BE-81D7-535A2625CD6A}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57051,7 +57020,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1474" id="{3C761091-0F91-45D7-B095-80E9A53EC0B2}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57064,7 +57033,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1558" id="{36DFD80D-F851-4E75-836A-92D462E2EEB7}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57077,7 +57046,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1557" id="{8B317483-098E-4A2A-BA49-B086685534FA}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57090,7 +57059,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1550" id="{DACE73D6-1AEF-4B51-BE8D-861BCB66DD9C}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57103,7 +57072,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1549" id="{AFC423E7-C9D0-424F-AE10-097E236CB9E8}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57116,7 +57085,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1541" id="{FA41727E-839F-43A7-829E-286892A2FE00}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57129,7 +57098,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1534" id="{680F1787-BC06-4270-96E4-BC3A777C39F3}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57142,7 +57111,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1533" id="{F359FD19-84AE-447B-B2D3-2C40D1DC84CE}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57155,7 +57124,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1526" id="{584AD12B-1281-4B21-BBC3-DAF91A9ECE27}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57168,7 +57137,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1525" id="{16F63DC2-1C08-4593-BBD9-3BF1728B1C97}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57181,7 +57150,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1518" id="{EAD20816-00B7-4860-84EE-5CC5181D7B5E}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57194,7 +57163,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1503" id="{90F006AF-AFF4-4A2C-B463-6C114966DE77}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57207,7 +57176,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1492" id="{78423649-9370-4F1D-9C24-15A6C3C6B2FA}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57220,7 +57189,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1491" id="{E32E7728-4019-4C76-A9D0-95C8A7FBA0B3}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57233,7 +57202,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1490" id="{24F8730E-5B23-4F12-9EBC-8B0C309717F5}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57246,7 +57215,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1487" id="{5DD7567D-09E4-4193-9EB7-9393E2424802}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57259,7 +57228,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1486" id="{E974B459-FF6F-40D2-9871-66C73CB3F04D}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57272,7 +57241,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1482" id="{DFD4100E-362E-4872-A747-32D11F8207C8}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57285,7 +57254,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1479" id="{8E88804D-9B93-40A3-AF3A-B021BC290542}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57298,7 +57267,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1478" id="{551F21D2-3F4C-428A-A646-F58BCB7FFD0A}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57311,7 +57280,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1475" id="{5580D2A5-DC7E-43EF-92C7-1AF2F06454D5}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57324,7 +57293,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1471" id="{75777785-1472-498D-A5A9-460563056E75}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57337,7 +57306,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1468" id="{F8BAE968-D08C-4B11-9CF7-0FCDEBE63526}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57350,7 +57319,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1270" id="{A9C760C6-B47B-49F2-8983-A6C94204BAC0}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57363,7 +57332,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1242" id="{24A363B8-014C-4A31-9498-4EA4CA9B9BDB}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57376,7 +57345,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1239" id="{B481F993-846E-46BA-A704-8FA266C8E954}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57389,7 +57358,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1267" id="{E1260692-2D06-4C29-87EB-72B5034B23CF}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57402,7 +57371,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1186" id="{70709D79-E8A2-4FEB-BF06-FBA2A1CA8B49}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57415,7 +57384,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1183" id="{EA3D9409-2C52-47C3-9F67-5BE74B96597E}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57428,7 +57397,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="980" id="{7596EDC8-E630-4757-8B2F-070E92BE30D2}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57441,7 +57410,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="979" id="{96DC6838-7A48-42AC-8D46-6E320DE0669C}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57454,7 +57423,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="915" id="{91A2E8C7-298E-4F86-9067-6D4D6F24D058}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57467,7 +57436,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="904" id="{0CC5FC1D-A126-4AF0-9518-2452BCC082E0}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57480,7 +57449,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="903" id="{38F9D465-644E-4BBA-82CB-B559F6ABD5BA}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57493,7 +57462,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="828" id="{848DFD65-3251-46C2-89B7-67744DCA2ED7}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57506,7 +57475,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="807" id="{A5303ED3-5AAE-4E59-9350-9E494A7CF0BC}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57519,7 +57488,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="784" id="{21972CD2-10DE-46B6-831C-1BF761A1A319}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57532,7 +57501,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="765" id="{3E0C1C20-B5A1-40CE-8FAB-5BB86341EC6C}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57675,7 +57644,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="717" id="{24B63780-A937-4D37-8449-B2A6925A339E}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57688,7 +57657,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="716" id="{D28FC5F9-60FA-4955-8882-7B798806F938}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57701,7 +57670,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="715" id="{C2FBB975-A02F-4347-BFC4-FF431B84CE41}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57714,7 +57683,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="714" id="{3BD6AA22-2765-4468-9442-356D81C1DE36}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57727,7 +57696,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="713" id="{88BF22D7-66E9-44A4-AB41-E241FC93E9E1}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57740,7 +57709,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="711" id="{9CE22DF5-477B-441F-8FAA-38165807E308}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57753,7 +57722,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="710" id="{5EE74E0C-3C0C-47D7-B75D-9B80048D1BC3}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57766,7 +57735,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="709" id="{784D5F16-0D59-442F-BA45-4C2FAAAC3909}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57779,7 +57748,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="708" id="{E03699AD-EECE-4E20-A51D-416159BBC57B}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57792,7 +57761,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="707" id="{50621FC7-EA6C-434F-B0A5-03552F8C2910}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57805,7 +57774,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="706" id="{9F7932DE-5AF2-4997-B89A-626CD886998E}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57818,7 +57787,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="705" id="{D7AD0F6B-5A36-4DC1-AE4C-3064FDA621B9}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Documents\old\[JIMOS_Plan (Le Trung''s conflicted copy 2017-07-10).xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57831,7 +57800,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="703" id="{5209938D-77A7-498F-9F9D-3887E046C815}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57844,7 +57813,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="702" id="{F06A4225-5388-4189-9B3A-9F5D618EAC82}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57857,7 +57826,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="700" id="{3913C2E4-42F6-450C-A281-76516B5A3A4C}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57870,7 +57839,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="676" id="{8478949F-9CB1-4671-8EDB-8B63744C7DCC}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57883,7 +57852,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="692" id="{B798B081-9A1B-4013-83D1-384C222A164D}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57896,7 +57865,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="691" id="{CC76F0D9-0581-474B-92A3-0C29B9FEE17A}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57909,7 +57878,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="690" id="{FF23134F-072C-4561-9E85-A812AD91E301}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57922,7 +57891,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="686" id="{74F2B6F4-1E7F-4D69-9FB0-685BDEA0C04A}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57935,7 +57904,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="682" id="{A2702EF2-AC2D-451D-9B46-C83977C6F5F1}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -57948,7 +57917,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="679" id="{9FDF792F-9259-4F38-BC97-0B309F859519}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58026,7 +57995,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="647" id="{AEA5FC64-2367-47BC-A14C-858A42EB1249}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58065,7 +58034,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="638" id="{E7CDC9AB-B383-4803-A078-BC9CFBFB0123}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58091,7 +58060,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="624" id="{B6059854-E778-4A72-A56A-CF07AECDEE84}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58130,7 +58099,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="615" id="{6BBC0F5A-B6EB-422B-8BE0-D71E40614CB6}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58156,7 +58125,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="599" id="{BEA84771-8F4E-4257-B482-1292A6381A8E}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58195,7 +58164,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="590" id="{95FFC969-B0A9-4C23-8C3D-689A1C8BF820}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58221,7 +58190,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="561" id="{33B0A951-630D-4C5A-8F76-F5A2A0440401}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58260,7 +58229,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="556" id="{2EACD715-09B6-498D-B803-0C5A914B6623}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58286,7 +58255,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="500" id="{33C148FD-D96C-4F1E-81D8-6F11BE08224A}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58312,7 +58281,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="496" id="{97F91D4D-E33B-4FE2-9F7E-3EA02263EE64}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58325,7 +58294,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="428" id="{7891566C-E60B-410B-912F-B31276175935}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58364,7 +58333,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="419" id="{540367C7-DDBB-4309-903B-AD6E0FFAFFFD}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58390,7 +58359,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="407" id="{14970CEE-BAA4-4C13-AFEC-7BEB5848C2DD}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58403,7 +58372,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="406" id="{8B582E9D-761D-4FA1-A06C-9EBD262C86E1}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58429,7 +58398,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="402" id="{A0FF2258-ACB1-455D-9C35-1B086EE896BA}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58442,7 +58411,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="371" id="{A5D4822E-05E4-4D66-8A79-1B1FBFE01746}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58455,7 +58424,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="370" id="{9E4B68F1-E02E-4630-AAAF-56F9D82533C1}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58494,7 +58463,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="361" id="{0EFA16C9-7443-41A6-8BD1-D1FAECAC4A5F}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58533,7 +58502,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="322" id="{0DA4543B-3268-48EE-96FC-9301EA73DD16}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58546,7 +58515,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="323" id="{C81AC257-BEE3-4EE4-BCCE-420E7D1CF707}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58585,7 +58554,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="313" id="{548706EA-E66F-42C5-A6B9-16C4342469E5}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58611,7 +58580,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="289" id="{9AD123E3-CB08-481D-9B32-3FB56A97F65F}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58624,7 +58593,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="288" id="{D80F0C90-286B-4D0C-AA13-A628796A289A}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58663,7 +58632,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="279" id="{D9D3E885-5E99-4302-9AC4-D42F9E816B21}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58689,7 +58658,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="255" id="{69F712EF-B8AC-4B8F-8A52-86F0A915BDB2}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58702,7 +58671,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="254" id="{349FCFF4-E887-401A-88EF-2DA3C462C6BC}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58715,7 +58684,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="253" id="{74635BDA-07F5-4005-93B3-0F68FCAC99BD}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58728,7 +58697,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="252" id="{6BBBF4A9-C8DF-408B-A611-4EEECEC257E5}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58767,7 +58736,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="243" id="{7D1DCAF6-9BCA-48E6-B2CE-9C9AC6A46144}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58780,7 +58749,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="242" id="{8E1C7658-DAB0-414A-883C-4EA5480C24DB}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58806,7 +58775,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="226" id="{8A47C53E-FDC0-4688-BEB0-D5B34BC60052}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58819,7 +58788,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="225" id="{520967C3-6B89-4E8A-B10F-EBD0DB8F92D5}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58832,7 +58801,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="224" id="{9FB4E370-73B4-4EFF-87C8-3105EF7C5C56}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58845,7 +58814,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="223" id="{68047F9E-C23D-48ED-9AD1-7E362F3FA58A}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58884,7 +58853,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="214" id="{9894632F-8A4A-4489-9E3F-DDE03B995848}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58897,7 +58866,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="213" id="{58A8CE0B-1AD1-4EC5-903F-9FABEFED6C11}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58923,7 +58892,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="197" id="{F1E61830-9D08-434C-ADF1-1C1D440A91F7}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58936,7 +58905,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="196" id="{E2E1A52A-446F-495C-89A3-C9E37467688B}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58949,7 +58918,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="195" id="{3B7B6217-1496-425B-BFF6-FCA93FEE10A7}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -58962,7 +58931,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="194" id="{9F5107CF-60A1-4A82-8B29-60FF8C454FF2}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59001,7 +58970,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="185" id="{555FE2C0-15E1-48DB-B48E-D91DB0029703}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59014,7 +58983,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="184" id="{E1ED1EAF-E75B-410D-B5E2-C7C937FD585A}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59040,7 +59009,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="168" id="{596F3E53-573F-40E7-A0EE-E5E33DA6E3BA}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59053,7 +59022,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="167" id="{3FA01261-DA43-4C55-81B5-258A4240A51C}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59066,7 +59035,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="166" id="{0C25A580-C769-4D7D-A3E7-0572107A9620}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59079,7 +59048,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="165" id="{E6555BDB-358C-479D-939E-6AA2A057F7FA}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59118,7 +59087,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="156" id="{A63786A3-8BB9-4685-BB4C-71E72315F0F1}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59131,7 +59100,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="155" id="{503D7341-62EC-44C8-B80A-370BA33911E7}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59157,7 +59126,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="139" id="{92294F23-CF51-4867-BDAA-5C3538DB2855}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59170,7 +59139,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="138" id="{A9C90E9E-79C7-4F9A-B33D-5B580742D14A}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59183,7 +59152,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="137" id="{DDF3A3CA-EDBB-4FFE-B976-A8F6EC79FDA5}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59196,7 +59165,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="136" id="{2C058710-0FEF-44EA-9048-3CA9A9DD927F}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59235,7 +59204,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="127" id="{180FDF3E-8EFE-4030-8BE6-7C1AA5A50288}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59248,7 +59217,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="126" id="{B4479E36-FAE5-4A8C-8E5F-2DA68FC5C39F}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59274,7 +59243,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="110" id="{43EEDE66-B2EB-4CFB-B975-290C81D8B9C8}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59287,7 +59256,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="109" id="{EE89151C-6DFB-46BF-B2D0-718E07152E0C}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59300,7 +59269,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="108" id="{29F4BF12-7375-4D91-96DB-7F62C60F7A98}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59313,7 +59282,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="107" id="{C5DB2BB5-736E-487D-8223-937EDF66056C}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59352,7 +59321,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="98" id="{D1B64EDF-4A61-4B5A-B544-B58ED3ED51C5}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59365,7 +59334,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="97" id="{C368C7C0-1554-4B20-94BD-FBE4ABF58BCC}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59391,7 +59360,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="81" id="{4EE8FFED-4C64-4327-8FE5-CA3B70A31240}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59404,7 +59373,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="80" id="{45842544-6082-4D99-A50E-0E72188A83A9}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59417,7 +59386,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="79" id="{BEA12FD6-B4CD-46CA-9CD1-C4FCFDB5D135}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59430,7 +59399,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="78" id="{1C553D5C-4E20-4496-BBE8-6193E1BB0DEE}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59469,7 +59438,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="69" id="{5E85F5F2-590E-458B-ACAB-1A3CF75AD3DF}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59482,7 +59451,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="68" id="{8A7FC2BA-5434-4431-8ADF-69BBC1A51CA0}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59508,7 +59477,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="52" id="{57834B90-6B71-4BF8-B1E9-A861F587B50F}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59521,7 +59490,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="51" id="{4AF50CE5-9D13-4C1C-8CE5-3E28CACA0709}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59534,7 +59503,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="50" id="{07CC464C-0B63-4901-AB3D-3B1377911BA6}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59547,7 +59516,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="49" id="{987B7575-0AB6-4DF6-87C7-F547BA4D4D32}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59586,7 +59555,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="40" id="{8E517D25-D3E8-4674-9B35-8B5761FA6F08}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59599,7 +59568,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="39" id="{58EE739D-0E18-46C9-9759-6BF56EE3A933}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59612,7 +59581,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="23" id="{14927385-9A8A-4A35-B70D-3088FEBAF808}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59625,7 +59594,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="22" id="{55BF122E-8535-4A1C-B98A-D4BDC61ECBC2}">
-            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(S$3="土",S$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,S$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59638,7 +59607,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="21" id="{CAA1278C-F21B-4C2E-95FF-5FD17CF5856F}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59651,7 +59620,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="20" id="{8E4E2819-DE4A-4337-8B25-CA1AEC56B41A}">
-            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(AV$3="土",AV$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,AV$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59690,7 +59659,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="11" id="{BA364279-7333-46E8-AC43-7B15DE361F33}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -59703,7 +59672,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="10" id="{4A03623B-ABD3-4B12-A741-AED7A2E9165C}">
-            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
+            <xm:f>IF(OR(BY$3="土",BY$3="日", COUNTIF('C:\Users\haimv\Dropbox (bigtreetc)\backup_data\00_Japanese\Users\vnuser\Dropbox (bigtreetc)\JIMOS-Vietnam\100_勤怠管理システム(Attendance System)\00_Project management\[Kintai_Plan.xlsx]祝日'!#REF!,BY$2)&lt;&gt;0),TRUE,FALSE)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -61657,7 +61626,7 @@
     <row r="2" spans="2:6">
       <c r="B2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43320</v>
+        <v>43329</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>178</v>
@@ -61669,7 +61638,7 @@
       </c>
       <c r="C3" s="15">
         <f ca="1">SUMIF(JIMOS!L4:L1013,"&lt;="&amp;B2,JIMOS!J4:J1013)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -61678,7 +61647,7 @@
       </c>
       <c r="C4" s="15">
         <f>SUM(JIMOS!M4:M1013)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -61696,7 +61665,7 @@
       </c>
       <c r="C6" s="15">
         <f ca="1">C5-C3</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>183</v>
@@ -61708,7 +61677,7 @@
       </c>
       <c r="C7" s="15">
         <f>C5-C4</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>185</v>
@@ -61718,9 +61687,9 @@
       <c r="B8" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="15" t="e">
+      <c r="C8" s="15">
         <f ca="1">C5/C3</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>187</v>
@@ -61730,9 +61699,9 @@
       <c r="B9" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="15" t="e">
         <f>C5/C4</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>189</v>
@@ -62346,18 +62315,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62377,18 +62346,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458CED93-04BB-42BC-862D-39E1FD6BC864}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70107AC6-B549-4A3A-A074-80AACBA5DA1B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458CED93-04BB-42BC-862D-39E1FD6BC864}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>